--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C8095-E12F-420E-B98E-731016FD56AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F70634-C069-4470-9D43-73E4CC5F1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$80</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="664">
   <si>
     <t>SearchID</t>
   </si>
@@ -3979,25 +3979,10 @@
     <t>Automatic linear modelling (ALM)</t>
   </si>
   <si>
-    <t>catch and release related mortality</t>
-  </si>
-  <si>
-    <t>hobby fishing</t>
-  </si>
-  <si>
     <t>sport fishing competition</t>
   </si>
   <si>
     <t>mortality</t>
-  </si>
-  <si>
-    <t>CPUE</t>
-  </si>
-  <si>
-    <t>Catch per unit effort was higher for sport fishers with hobby fishers targeting larger fish.</t>
-  </si>
-  <si>
-    <t>injuries, stress, and effects in behavior may result in post-release mortality or loss of fitness. The survival of released fish is chiefly determined by angler activities</t>
   </si>
   <si>
     <t>descriptive statistics</t>
@@ -4253,9 +4238,6 @@
     <t>trawling-induced erosion rate</t>
   </si>
   <si>
-    <t>fish mortality</t>
-  </si>
-  <si>
     <t>catch _ effort (trips/year) _ effort (hours/day)</t>
   </si>
   <si>
@@ -4301,9 +4283,6 @@
     <t>Caution has to be expressed in that we consider our results from the dynamic simulations to be optimistic</t>
   </si>
   <si>
-    <t>bycatch mortality</t>
-  </si>
-  <si>
     <t>nutrient flux</t>
   </si>
   <si>
@@ -4329,6 +4308,21 @@
   </si>
   <si>
     <t>Octopus vulgaris _ Todarodes sagittatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reports of stranded cetaceans and interviews with fishers revealed cases of cetacean entanglement in fishing nets, as well as frequent dolphin damage to fishing nets.</t>
+  </si>
+  <si>
+    <t>sea temperature _ catch location _ duration of competition</t>
+  </si>
+  <si>
+    <t>use of keep net</t>
+  </si>
+  <si>
+    <t>injuries, stress, and effects in behavior may result in post-release mortality or loss of fitness. The survival of released fish is chiefly determined by angler activities. The use of keepnet, sea temperature, capture location, and duration of competition were significant predictors of the fish mortality with keepnet use being the most important predictor of fish mortality. Although the mortality rate decreased with keepnet use, this increased during the summer months suggesting that fish are subjected to greater stress warmer periods as also documented in other studies.</t>
+  </si>
+  <si>
+    <t>Fishing operations</t>
   </si>
 </sst>
 </file>
@@ -4794,34 +4788,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AX81"/>
+  <dimension ref="A1:AX80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AU83" sqref="AU83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
-    <col min="48" max="48" width="27.109375" customWidth="1"/>
-    <col min="50" max="50" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="28" max="28" width="16.26953125" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="48" max="48" width="27.1796875" customWidth="1"/>
+    <col min="50" max="50" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -4887,7 +4880,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5009,7 +5002,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5039,7 +5032,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>239</v>
       </c>
@@ -5140,13 +5133,13 @@
         <v>146</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -5173,7 +5166,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>239</v>
       </c>
@@ -5280,7 +5273,7 @@
         <v>233</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -5307,7 +5300,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>239</v>
       </c>
@@ -5414,7 +5407,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -5441,7 +5434,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>239</v>
       </c>
@@ -5542,13 +5535,13 @@
         <v>134</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
@@ -5575,7 +5568,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>239</v>
       </c>
@@ -5676,13 +5669,13 @@
         <v>141</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
@@ -5709,7 +5702,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>239</v>
       </c>
@@ -5810,13 +5803,13 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5843,7 +5836,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>239</v>
       </c>
@@ -5950,7 +5943,7 @@
         <v>233</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5977,7 +5970,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>239</v>
       </c>
@@ -6084,7 +6077,7 @@
         <v>233</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -6111,7 +6104,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>239</v>
       </c>
@@ -6212,13 +6205,13 @@
         <v>134</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -6245,7 +6238,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>239</v>
       </c>
@@ -6346,13 +6339,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -6379,7 +6372,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
@@ -6438,7 +6431,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>258</v>
       </c>
@@ -6539,7 +6532,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6563,7 +6556,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>258</v>
       </c>
@@ -6673,7 +6666,7 @@
         <v>161</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AP15" s="11" t="s">
         <v>417</v>
@@ -6700,7 +6693,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>258</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6828,7 +6821,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>403</v>
       </c>
@@ -6932,7 +6925,7 @@
         <v>159</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6956,7 +6949,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>403</v>
       </c>
@@ -7060,7 +7053,7 @@
         <v>159</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -7084,7 +7077,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>403</v>
       </c>
@@ -7188,7 +7181,7 @@
         <v>159</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -7212,7 +7205,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>411</v>
       </c>
@@ -7316,7 +7309,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -7337,13 +7330,13 @@
         <v>238</v>
       </c>
       <c r="AW20" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX20" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>411</v>
       </c>
@@ -7447,7 +7440,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7465,13 +7458,13 @@
         <v>238</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX21" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>411</v>
       </c>
@@ -7575,7 +7568,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7593,13 +7586,13 @@
         <v>238</v>
       </c>
       <c r="AW22" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX22" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
@@ -7655,7 +7648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>278</v>
       </c>
@@ -7756,7 +7749,7 @@
         <v>155</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>232</v>
@@ -7765,7 +7758,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7779,8 +7772,11 @@
       <c r="AW24" s="11" t="s">
         <v>208</v>
       </c>
+      <c r="AX24" s="11" t="s">
+        <v>659</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>278</v>
       </c>
@@ -7881,7 +7877,7 @@
         <v>155</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7890,7 +7886,7 @@
         <v>162</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7902,7 +7898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>278</v>
       </c>
@@ -8000,7 +7996,7 @@
         <v>155</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -8009,7 +8005,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
@@ -8033,7 +8029,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>278</v>
       </c>
@@ -8131,7 +8127,7 @@
         <v>155</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -8140,7 +8136,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -8167,7 +8163,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>278</v>
       </c>
@@ -8265,7 +8261,7 @@
         <v>155</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -8274,7 +8270,7 @@
         <v>162</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
@@ -8301,7 +8297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>289</v>
       </c>
@@ -8399,7 +8395,7 @@
         <v>233</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8423,7 +8419,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>289</v>
       </c>
@@ -8521,7 +8517,7 @@
         <v>233</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
@@ -8545,7 +8541,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>299</v>
       </c>
@@ -8643,10 +8639,13 @@
         <v>232</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>640</v>
+        <v>661</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>660</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>165</v>
@@ -8658,45 +8657,45 @@
         <v>196</v>
       </c>
       <c r="AT31" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AU31" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="AU31" s="11" t="s">
-        <v>553</v>
-      </c>
       <c r="AV31" s="11" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="AW31" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX31" s="10" t="s">
-        <v>554</v>
+        <v>209</v>
+      </c>
+      <c r="AX31" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E32" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>245</v>
@@ -8705,13 +8704,13 @@
         <v>245</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>248</v>
@@ -8720,129 +8719,57 @@
         <v>249</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z32" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>1</v>
+      <c r="R32" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF32" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH32" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM32" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="AQ32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR32" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT32" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="AU32" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="AV32" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW32" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX32" s="11" t="s">
-        <v>555</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E33" s="11">
         <v>2018</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>248</v>
@@ -8851,7 +8778,7 @@
         <v>249</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>21</v>
@@ -8860,48 +8787,48 @@
         <v>84</v>
       </c>
       <c r="AF33" s="11" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E34" s="11">
         <v>2018</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>248</v>
@@ -8919,48 +8846,48 @@
         <v>84</v>
       </c>
       <c r="AF34" s="11" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E35" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>248</v>
@@ -8969,57 +8896,58 @@
         <v>249</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Y35" s="12"/>
       <c r="AF35" s="11" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E36" s="11">
         <v>2017</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>248</v>
@@ -9028,20 +8956,91 @@
         <v>249</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y36" s="12"/>
+      <c r="S36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>559</v>
+      </c>
       <c r="AF36" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN36" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="AQ36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AV36" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX36" s="10" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>346</v>
       </c>
@@ -9112,7 +9111,7 @@
         <v>69</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA37" s="11">
         <v>3</v>
@@ -9124,7 +9123,7 @@
         <v>2</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF37" s="11" t="s">
         <v>307</v>
@@ -9139,16 +9138,16 @@
         <v>138</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>165</v>
@@ -9160,19 +9159,19 @@
         <v>196</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX37" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>346</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>69</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA38" s="11">
         <v>3</v>
@@ -9255,7 +9254,7 @@
         <v>2</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF38" s="11" t="s">
         <v>307</v>
@@ -9270,16 +9269,16 @@
         <v>138</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN38" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>165</v>
@@ -9288,22 +9287,22 @@
         <v>197</v>
       </c>
       <c r="AS38" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AU38" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV38" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW38" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX38" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>346</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>69</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA39" s="11">
         <v>3</v>
@@ -9386,7 +9385,7 @@
         <v>2</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF39" s="11" t="s">
         <v>307</v>
@@ -9401,7 +9400,7 @@
         <v>138</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="AM39" s="11" t="s">
         <v>232</v>
@@ -9410,7 +9409,7 @@
         <v>160</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>165</v>
@@ -9419,22 +9418,22 @@
         <v>197</v>
       </c>
       <c r="AS39" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV39" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX39" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>346</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>69</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA40" s="11">
         <v>3</v>
@@ -9517,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="AD40" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF40" s="11" t="s">
         <v>307</v>
@@ -9532,16 +9531,16 @@
         <v>138</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN40" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>165</v>
@@ -9553,19 +9552,19 @@
         <v>194</v>
       </c>
       <c r="AU40" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV40" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW40" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX40" s="10" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>346</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>69</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA41" s="11">
         <v>3</v>
@@ -9648,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF41" s="11" t="s">
         <v>307</v>
@@ -9657,46 +9656,40 @@
         <v>109</v>
       </c>
       <c r="AH41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AM41" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ41" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AR41" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="AU41" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV41" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW41" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>346</v>
       </c>
@@ -9767,7 +9760,7 @@
         <v>69</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AA42" s="11">
         <v>3</v>
@@ -9779,7 +9772,7 @@
         <v>2</v>
       </c>
       <c r="AD42" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF42" s="11" t="s">
         <v>307</v>
@@ -9788,10 +9781,13 @@
         <v>109</v>
       </c>
       <c r="AH42" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="AL42" s="11" t="s">
-        <v>665</v>
+        <v>555</v>
       </c>
       <c r="AM42" s="11" t="s">
         <v>232</v>
@@ -9800,66 +9796,69 @@
         <v>160</v>
       </c>
       <c r="AO42" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AQ42" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AR42" s="11" t="s">
-        <v>113</v>
+        <v>197</v>
+      </c>
+      <c r="AS42" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="AU42" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AV42" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW42" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX42" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E43" s="11">
         <v>2017</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>248</v>
@@ -9868,129 +9867,57 @@
         <v>249</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>564</v>
+      <c r="R43" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG43" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL43" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO43" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR43" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS43" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX43" s="10" t="s">
-        <v>563</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E44" s="11">
         <v>2017</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>248</v>
@@ -9999,57 +9926,129 @@
         <v>249</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>84</v>
+      <c r="S44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>3</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL44" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN44" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="AQ44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR44" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS44" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT44" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="AU44" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AV44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW44" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX44" s="11" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E45" s="11">
         <v>2017</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>248</v>
@@ -10058,7 +10057,7 @@
         <v>249</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>21</v>
@@ -10067,25 +10066,25 @@
         <v>26</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z45" s="11" t="s">
         <v>565</v>
       </c>
       <c r="AA45" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB45" s="11">
         <v>3</v>
@@ -10094,37 +10093,40 @@
         <v>3</v>
       </c>
       <c r="AF45" s="11" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AG45" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI45" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AL45" s="11" t="s">
         <v>566</v>
       </c>
       <c r="AM45" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN45" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO45" s="11" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR45" s="11" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>567</v>
@@ -10133,16 +10135,16 @@
         <v>568</v>
       </c>
       <c r="AV45" s="11" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AW45" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX45" s="11" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>369</v>
       </c>
@@ -10213,7 +10215,7 @@
         <v>215</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AA46" s="11">
         <v>3</v>
@@ -10243,13 +10245,13 @@
         <v>150</v>
       </c>
       <c r="AL46" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AM46" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO46" s="11" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>164</v>
@@ -10258,13 +10260,13 @@
         <v>421</v>
       </c>
       <c r="AS46" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT46" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AU46" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV46" s="11" t="s">
         <v>113</v>
@@ -10273,48 +10275,48 @@
         <v>210</v>
       </c>
       <c r="AX46" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E47" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>248</v>
@@ -10323,46 +10325,46 @@
         <v>249</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U47" s="11" t="s">
         <v>57</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="AA47" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC47" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF47" s="11" t="s">
         <v>250</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>120</v>
@@ -10374,16 +10376,13 @@
         <v>113</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL47" s="11" t="s">
-        <v>571</v>
+        <v>141</v>
       </c>
       <c r="AM47" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO47" s="11" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AQ47" s="11" t="s">
         <v>164</v>
@@ -10394,61 +10393,58 @@
       <c r="AS47" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>572</v>
-      </c>
       <c r="AU47" s="11" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="AV47" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW47" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX47" s="11" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E48" s="11">
         <v>2016</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>248</v>
@@ -10463,82 +10459,94 @@
         <v>21</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W48" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X48" s="11" t="s">
-        <v>216</v>
+        <v>72</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="AA48" s="11">
         <v>2</v>
       </c>
       <c r="AB48" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD48" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="AF48" s="11" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI48" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ48" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK48" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="AL48" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="AM48" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO48" s="11" t="s">
-        <v>646</v>
+        <v>159</v>
+      </c>
+      <c r="AO48" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP48" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="AQ48" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="AS48" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="AT48" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="AU48" s="11" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="AV48" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW48" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX48" s="11" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>383</v>
       </c>
@@ -10606,13 +10614,10 @@
         <v>55</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AA49" s="11">
         <v>2</v>
@@ -10624,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AF49" s="11" t="s">
         <v>268</v>
@@ -10642,16 +10647,16 @@
         <v>155</v>
       </c>
       <c r="AL49" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AM49" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AO49" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AP49" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AQ49" s="11" t="s">
         <v>164</v>
@@ -10663,10 +10668,10 @@
         <v>193</v>
       </c>
       <c r="AT49" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AU49" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AV49" s="11" t="s">
         <v>237</v>
@@ -10675,48 +10680,48 @@
         <v>207</v>
       </c>
       <c r="AX49" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E50" s="11">
         <v>2016</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>248</v>
@@ -10725,195 +10730,192 @@
         <v>249</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AA50" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="11">
         <v>2</v>
-      </c>
-      <c r="AB50" s="11">
-        <v>1</v>
       </c>
       <c r="AC50" s="11">
         <v>3</v>
       </c>
-      <c r="AD50" s="11" t="s">
-        <v>580</v>
+      <c r="AD50" s="10" t="s">
+        <v>582</v>
       </c>
       <c r="AF50" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI50" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AL50" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO50" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AP50" s="11" t="s">
-        <v>578</v>
+        <v>232</v>
+      </c>
+      <c r="AN50" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO50" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR50" s="11" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="AT50" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AU50" s="11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AV50" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW50" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX50" s="11" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E51" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="N51" s="11" t="s">
+      <c r="C51" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="N51" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="11" t="s">
-        <v>26</v>
+      <c r="S51" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="T51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X51" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y51" s="11" t="s">
+        <v>583</v>
+      </c>
       <c r="Z51" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AA51" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF51" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF51" s="13" t="s">
         <v>268</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI51" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AL51" s="11" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AM51" s="11" t="s">
         <v>232</v>
@@ -10922,34 +10924,34 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>422</v>
+        <v>170</v>
       </c>
       <c r="AS51" s="11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AT51" s="11" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AU51" s="11" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AV51" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW51" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX51" s="11" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>444</v>
       </c>
@@ -11020,10 +11022,10 @@
         <v>69</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA52" s="11">
         <v>2</v>
@@ -11035,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF52" s="13" t="s">
         <v>268</v>
@@ -11047,7 +11049,7 @@
         <v>116</v>
       </c>
       <c r="AL52" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AM52" s="11" t="s">
         <v>232</v>
@@ -11056,34 +11058,34 @@
         <v>162</v>
       </c>
       <c r="AO52" s="11" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AQ52" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR52" s="11" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS52" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AT52" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AU52" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AV52" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW52" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX52" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>444</v>
       </c>
@@ -11154,10 +11156,10 @@
         <v>69</v>
       </c>
       <c r="Y53" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA53" s="11">
         <v>2</v>
@@ -11169,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="AD53" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF53" s="13" t="s">
         <v>268</v>
@@ -11181,7 +11183,7 @@
         <v>116</v>
       </c>
       <c r="AL53" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AM53" s="11" t="s">
         <v>232</v>
@@ -11190,7 +11192,7 @@
         <v>162</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AQ53" s="11" t="s">
         <v>164</v>
@@ -11202,22 +11204,22 @@
         <v>192</v>
       </c>
       <c r="AT53" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AU53" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW53" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX53" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>444</v>
       </c>
@@ -11288,10 +11290,10 @@
         <v>69</v>
       </c>
       <c r="Y54" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Z54" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA54" s="11">
         <v>2</v>
@@ -11303,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF54" s="13" t="s">
         <v>268</v>
@@ -11315,7 +11317,7 @@
         <v>116</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AM54" s="11" t="s">
         <v>232</v>
@@ -11324,72 +11326,72 @@
         <v>162</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AQ54" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR54" s="11" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS54" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AT54" s="11" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AU54" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AV54" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW54" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX54" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E55" s="13">
         <v>2015</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>248</v>
@@ -11398,132 +11400,58 @@
         <v>249</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U55" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA55" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB55" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="10" t="s">
-        <v>590</v>
-      </c>
+      <c r="R55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S55" s="13"/>
       <c r="AF55" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL55" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN55" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="AQ55" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR55" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="AU55" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV55" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW55" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX55" s="11" t="s">
-        <v>597</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E56" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>457</v>
+        <v>245</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>458</v>
+        <v>245</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="N56" s="13" t="s">
         <v>248</v>
@@ -11532,20 +11460,91 @@
         <v>249</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S56" s="13"/>
+      <c r="S56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="X56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="10" t="s">
+        <v>594</v>
+      </c>
       <c r="AF56" s="13" t="s">
-        <v>250</v>
+        <v>268</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI56" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL56" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM56" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN56" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO56" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="AQ56" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR56" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU56" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV56" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW56" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX56" s="11" t="s">
+        <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>461</v>
       </c>
@@ -11619,7 +11618,7 @@
         <v>434</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AA57" s="11">
         <v>1</v>
@@ -11631,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AF57" s="13" t="s">
         <v>268</v>
@@ -11655,66 +11654,69 @@
         <v>162</v>
       </c>
       <c r="AO57" s="11" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>113</v>
+        <v>170</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="AU57" s="11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AV57" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW57" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX57" s="11" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E58" s="13">
         <v>2014</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>311</v>
+        <v>471</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>248</v>
@@ -11723,132 +11725,58 @@
         <v>249</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W58" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z58" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="AA58" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC58" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD58" s="10" t="s">
-        <v>599</v>
-      </c>
+      <c r="R58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S58" s="13"/>
       <c r="AF58" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG58" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI58" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL58" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM58" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN58" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO58" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="AQ58" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU58" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="AV58" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW58" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX58" s="11" t="s">
-        <v>601</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E59" s="13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>248</v>
@@ -11862,15 +11790,83 @@
       <c r="Q59" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S59" s="13"/>
+      <c r="S59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W59" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="10" t="s">
+        <v>598</v>
+      </c>
       <c r="AF59" s="13" t="s">
-        <v>307</v>
+        <v>487</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM59" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO59" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU59" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AV59" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX59" s="11" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>477</v>
       </c>
@@ -11941,7 +11937,7 @@
         <v>80</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA60" s="11">
         <v>2</v>
@@ -11953,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="AD60" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF60" s="13" t="s">
         <v>487</v>
@@ -11965,7 +11961,7 @@
         <v>120</v>
       </c>
       <c r="AI60" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK60" s="11" t="s">
         <v>148</v>
@@ -11974,7 +11970,7 @@
         <v>233</v>
       </c>
       <c r="AO60" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ60" s="11" t="s">
         <v>164</v>
@@ -11986,7 +11982,7 @@
         <v>175</v>
       </c>
       <c r="AU60" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AV60" s="11" t="s">
         <v>199</v>
@@ -11995,10 +11991,10 @@
         <v>208</v>
       </c>
       <c r="AX60" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>477</v>
       </c>
@@ -12069,7 +12065,7 @@
         <v>80</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA61" s="11">
         <v>2</v>
@@ -12081,7 +12077,7 @@
         <v>3</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF61" s="13" t="s">
         <v>487</v>
@@ -12093,7 +12089,7 @@
         <v>120</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK61" s="11" t="s">
         <v>148</v>
@@ -12102,7 +12098,7 @@
         <v>233</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ61" s="11" t="s">
         <v>164</v>
@@ -12111,10 +12107,10 @@
         <v>421</v>
       </c>
       <c r="AS61" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU61" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>199</v>
@@ -12123,10 +12119,10 @@
         <v>208</v>
       </c>
       <c r="AX61" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>477</v>
       </c>
@@ -12197,7 +12193,7 @@
         <v>80</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA62" s="11">
         <v>2</v>
@@ -12209,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="AD62" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF62" s="13" t="s">
         <v>487</v>
@@ -12221,7 +12217,7 @@
         <v>120</v>
       </c>
       <c r="AI62" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK62" s="11" t="s">
         <v>148</v>
@@ -12230,7 +12226,7 @@
         <v>233</v>
       </c>
       <c r="AO62" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AQ62" s="11" t="s">
         <v>164</v>
@@ -12242,7 +12238,7 @@
         <v>176</v>
       </c>
       <c r="AU62" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AV62" s="11" t="s">
         <v>199</v>
@@ -12251,10 +12247,10 @@
         <v>208</v>
       </c>
       <c r="AX62" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>477</v>
       </c>
@@ -12325,7 +12321,7 @@
         <v>80</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA63" s="11">
         <v>2</v>
@@ -12337,7 +12333,7 @@
         <v>3</v>
       </c>
       <c r="AD63" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF63" s="13" t="s">
         <v>487</v>
@@ -12349,7 +12345,7 @@
         <v>120</v>
       </c>
       <c r="AI63" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK63" s="11" t="s">
         <v>148</v>
@@ -12358,7 +12354,7 @@
         <v>233</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12367,22 +12363,22 @@
         <v>421</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU63" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW63" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>477</v>
       </c>
@@ -12453,7 +12449,7 @@
         <v>80</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA64" s="11">
         <v>2</v>
@@ -12465,7 +12461,7 @@
         <v>3</v>
       </c>
       <c r="AD64" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF64" s="13" t="s">
         <v>487</v>
@@ -12477,7 +12473,7 @@
         <v>120</v>
       </c>
       <c r="AI64" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK64" s="11" t="s">
         <v>148</v>
@@ -12486,7 +12482,7 @@
         <v>233</v>
       </c>
       <c r="AO64" s="11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ64" s="11" t="s">
         <v>164</v>
@@ -12498,7 +12494,7 @@
         <v>175</v>
       </c>
       <c r="AU64" s="11" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AV64" s="11" t="s">
         <v>113</v>
@@ -12507,10 +12503,10 @@
         <v>207</v>
       </c>
       <c r="AX64" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>477</v>
       </c>
@@ -12581,7 +12577,7 @@
         <v>80</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA65" s="11">
         <v>2</v>
@@ -12593,7 +12589,7 @@
         <v>3</v>
       </c>
       <c r="AD65" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF65" s="13" t="s">
         <v>487</v>
@@ -12605,7 +12601,7 @@
         <v>120</v>
       </c>
       <c r="AI65" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK65" s="11" t="s">
         <v>148</v>
@@ -12614,7 +12610,7 @@
         <v>233</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ65" s="11" t="s">
         <v>164</v>
@@ -12623,10 +12619,10 @@
         <v>421</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU65" s="11" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>113</v>
@@ -12635,10 +12631,10 @@
         <v>207</v>
       </c>
       <c r="AX65" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>477</v>
       </c>
@@ -12709,7 +12705,7 @@
         <v>80</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AA66" s="11">
         <v>2</v>
@@ -12721,7 +12717,7 @@
         <v>3</v>
       </c>
       <c r="AD66" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF66" s="13" t="s">
         <v>487</v>
@@ -12733,7 +12729,7 @@
         <v>120</v>
       </c>
       <c r="AI66" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK66" s="11" t="s">
         <v>148</v>
@@ -12742,7 +12738,7 @@
         <v>233</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AQ66" s="11" t="s">
         <v>164</v>
@@ -12754,7 +12750,7 @@
         <v>176</v>
       </c>
       <c r="AU66" s="11" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AV66" s="11" t="s">
         <v>113</v>
@@ -12763,48 +12759,48 @@
         <v>207</v>
       </c>
       <c r="AX66" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E67" s="13">
         <v>2013</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>248</v>
@@ -12819,58 +12815,52 @@
         <v>21</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V67" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W67" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>644</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="AA67" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB67" s="11">
         <v>2</v>
       </c>
-      <c r="AB67" s="11">
-        <v>3</v>
-      </c>
       <c r="AC67" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD67" s="10" t="s">
-        <v>603</v>
+        <v>2</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI67" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK67" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM67" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN67" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12879,22 +12869,25 @@
         <v>421</v>
       </c>
       <c r="AS67" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT67" s="11" t="s">
+        <v>647</v>
       </c>
       <c r="AU67" s="11" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AV67" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW67" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>488</v>
       </c>
@@ -12962,10 +12955,10 @@
         <v>216</v>
       </c>
       <c r="Y68" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="Z68" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AA68" s="11">
         <v>3</v>
@@ -12989,10 +12982,10 @@
         <v>232</v>
       </c>
       <c r="AN68" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO68" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>164</v>
@@ -13004,10 +12997,10 @@
         <v>175</v>
       </c>
       <c r="AT68" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AU68" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AV68" s="11" t="s">
         <v>199</v>
@@ -13016,10 +13009,10 @@
         <v>208</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>488</v>
       </c>
@@ -13087,10 +13080,10 @@
         <v>216</v>
       </c>
       <c r="Y69" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AA69" s="11">
         <v>3</v>
@@ -13114,10 +13107,10 @@
         <v>232</v>
       </c>
       <c r="AN69" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>164</v>
@@ -13129,22 +13122,22 @@
         <v>175</v>
       </c>
       <c r="AT69" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW69" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>488</v>
       </c>
@@ -13212,10 +13205,10 @@
         <v>216</v>
       </c>
       <c r="Y70" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="Z70" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AA70" s="11">
         <v>3</v>
@@ -13239,10 +13232,10 @@
         <v>232</v>
       </c>
       <c r="AN70" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO70" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AQ70" s="11" t="s">
         <v>164</v>
@@ -13254,10 +13247,10 @@
         <v>175</v>
       </c>
       <c r="AT70" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AU70" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AV70" s="11" t="s">
         <v>203</v>
@@ -13266,57 +13259,57 @@
         <v>208</v>
       </c>
       <c r="AX70" s="11" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E71" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q71" s="13" t="s">
         <v>21</v>
@@ -13325,49 +13318,58 @@
         <v>31</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V71" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X71" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>650</v>
-      </c>
       <c r="Z71" s="11" t="s">
-        <v>651</v>
+        <v>603</v>
       </c>
       <c r="AA71" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB71" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="11">
         <v>2</v>
       </c>
+      <c r="AD71" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="AF71" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG71" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH71" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL71" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN71" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13375,14 +13377,11 @@
       <c r="AR71" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS71" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT71" s="11" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="AU71" s="11" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="AV71" s="11" t="s">
         <v>203</v>
@@ -13391,10 +13390,10 @@
         <v>208</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>495</v>
       </c>
@@ -13462,10 +13461,10 @@
         <v>51</v>
       </c>
       <c r="X72" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AA72" s="11">
         <v>1</v>
@@ -13477,7 +13476,7 @@
         <v>2</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AF72" s="13" t="s">
         <v>265</v>
@@ -13492,7 +13491,7 @@
         <v>144</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>232</v>
@@ -13501,7 +13500,7 @@
         <v>160</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>164</v>
@@ -13510,10 +13509,10 @@
         <v>421</v>
       </c>
       <c r="AT72" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AU72" s="11" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AV72" s="11" t="s">
         <v>203</v>
@@ -13522,10 +13521,10 @@
         <v>208</v>
       </c>
       <c r="AX72" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>495</v>
       </c>
@@ -13593,10 +13592,10 @@
         <v>51</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AA73" s="11">
         <v>1</v>
@@ -13608,7 +13607,7 @@
         <v>2</v>
       </c>
       <c r="AD73" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AF73" s="13" t="s">
         <v>265</v>
@@ -13623,7 +13622,7 @@
         <v>144</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AM73" s="11" t="s">
         <v>232</v>
@@ -13632,7 +13631,7 @@
         <v>160</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>164</v>
@@ -13641,22 +13640,22 @@
         <v>421</v>
       </c>
       <c r="AT73" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AU73" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>203</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>495</v>
       </c>
@@ -13724,10 +13723,10 @@
         <v>51</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AA74" s="11">
         <v>1</v>
@@ -13739,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="AD74" s="10" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AF74" s="13" t="s">
         <v>265</v>
@@ -13754,7 +13753,7 @@
         <v>144</v>
       </c>
       <c r="AL74" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AM74" s="11" t="s">
         <v>232</v>
@@ -13763,7 +13762,7 @@
         <v>160</v>
       </c>
       <c r="AO74" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AQ74" s="11" t="s">
         <v>164</v>
@@ -13772,10 +13771,10 @@
         <v>421</v>
       </c>
       <c r="AT74" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AU74" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AV74" s="11" t="s">
         <v>203</v>
@@ -13784,114 +13783,114 @@
         <v>210</v>
       </c>
       <c r="AX74" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E75" s="13">
         <v>2012</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O75" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="Q75" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W75" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA75" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB75" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC75" s="11">
         <v>1</v>
       </c>
-      <c r="AB75" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD75" s="10" t="s">
-        <v>612</v>
-      </c>
       <c r="AF75" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG75" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI75" s="11" t="s">
-        <v>144</v>
+      <c r="AK75" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL75" s="11" t="s">
         <v>609</v>
       </c>
       <c r="AM75" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN75" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO75" s="11" t="s">
         <v>646</v>
@@ -13902,23 +13901,23 @@
       <c r="AR75" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>609</v>
+      <c r="AS75" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU75" s="11" t="s">
         <v>611</v>
       </c>
       <c r="AV75" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW75" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX75" s="11" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>505</v>
       </c>
@@ -13989,7 +13988,7 @@
         <v>215</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AA76" s="11">
         <v>2</v>
@@ -14019,13 +14018,13 @@
         <v>148</v>
       </c>
       <c r="AL76" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AM76" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO76" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AQ76" s="11" t="s">
         <v>164</v>
@@ -14037,57 +14036,57 @@
         <v>175</v>
       </c>
       <c r="AU76" s="11" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AV76" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW76" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX76" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E77" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>248</v>
@@ -14096,19 +14095,19 @@
         <v>249</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T77" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V77" s="11" t="s">
         <v>41</v>
@@ -14117,46 +14116,46 @@
         <v>55</v>
       </c>
       <c r="X77" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AA77" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB77" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC77" s="11">
         <v>1</v>
       </c>
       <c r="AF77" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG77" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH77" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI77" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ77" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK77" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL77" s="11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM77" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN77" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO77" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>164</v>
@@ -14167,20 +14166,23 @@
       <c r="AS77" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT77" s="11" t="s">
+        <v>614</v>
+      </c>
       <c r="AU77" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AV77" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX77" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
         <v>514</v>
       </c>
@@ -14251,7 +14253,7 @@
         <v>69</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AA78" s="11">
         <v>3</v>
@@ -14278,7 +14280,7 @@
         <v>150</v>
       </c>
       <c r="AL78" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AM78" s="11" t="s">
         <v>232</v>
@@ -14287,7 +14289,7 @@
         <v>161</v>
       </c>
       <c r="AO78" s="11" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="AQ78" s="11" t="s">
         <v>164</v>
@@ -14299,57 +14301,60 @@
         <v>175</v>
       </c>
       <c r="AT78" s="11" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AU78" s="11" t="s">
-        <v>620</v>
+        <v>615</v>
+      </c>
+      <c r="AV78" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="AW78" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX78" s="11" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E79" s="13">
         <v>2011</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>363</v>
+        <v>525</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L79" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>248</v>
@@ -14364,34 +14369,37 @@
         <v>21</v>
       </c>
       <c r="S79" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T79" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V79" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W79" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X79" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y79" s="12" t="s">
+        <v>619</v>
+      </c>
       <c r="Z79" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AA79" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB79" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC79" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF79" s="13" t="s">
         <v>307</v>
@@ -14400,25 +14408,28 @@
         <v>109</v>
       </c>
       <c r="AH79" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI79" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ79" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK79" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL79" s="11" t="s">
-        <v>622</v>
+      <c r="AL79" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="AM79" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN79" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO79" s="11" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="AQ79" s="11" t="s">
         <v>164</v>
@@ -14426,23 +14437,20 @@
       <c r="AR79" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS79" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT79" s="11" t="s">
-        <v>619</v>
-      </c>
       <c r="AU79" s="11" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="AV79" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="AW79" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX79" s="11" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>522</v>
       </c>
@@ -14513,10 +14521,10 @@
         <v>69</v>
       </c>
       <c r="Y80" s="12" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Z80" s="11" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AA80" s="11">
         <v>2</v>
@@ -14546,7 +14554,7 @@
         <v>150</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AM80" s="11" t="s">
         <v>232</v>
@@ -14555,7 +14563,7 @@
         <v>160</v>
       </c>
       <c r="AO80" s="11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AQ80" s="11" t="s">
         <v>164</v>
@@ -14564,158 +14572,19 @@
         <v>421</v>
       </c>
       <c r="AU80" s="11" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AV80" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW80" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX80" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E81" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M81" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N81" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O81" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q81" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S81" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V81" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="Z81" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF81" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG81" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH81" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI81" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ81" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK81" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL81" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="AM81" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN81" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO81" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="AQ81" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR81" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU81" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="AV81" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW81" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX81" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AX81" xr:uid="{3CDE62D2-552F-47D6-AD4A-F74F1F28E620}">
-    <filterColumn colId="17">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -14733,7 +14602,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO82:AO1048576 AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576 AO81:AO1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14747,7 +14616,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R51 R56:R1048576 AF3:AF81</xm:sqref>
+          <xm:sqref>R55:R1048576 AF3:AF80 R3:R50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -14847,17 +14716,17 @@
       <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -14922,7 +14791,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15071,7 +14940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15128,7 +14997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15185,7 +15054,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -15241,7 +15110,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -15286,7 +15155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -15328,7 +15197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -15366,7 +15235,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -15401,7 +15270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -15433,7 +15302,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -15468,7 +15337,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -15500,7 +15369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -15535,7 +15404,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -15564,7 +15433,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -15593,7 +15462,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -15613,7 +15482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -15621,22 +15490,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -15671,7 +15540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -15697,7 +15566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -15720,7 +15589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -15731,7 +15600,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -15742,7 +15611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -15750,12 +15619,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -15778,7 +15647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -15804,7 +15673,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -15830,7 +15699,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -15850,7 +15719,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -15865,7 +15734,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -15879,7 +15748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -15887,10 +15756,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -15918,38 +15787,38 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.44140625" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" customWidth="1"/>
-    <col min="30" max="30" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" customWidth="1"/>
+    <col min="29" max="29" width="15.26953125" customWidth="1"/>
+    <col min="30" max="30" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7265625" customWidth="1"/>
+    <col min="32" max="32" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -15995,7 +15864,7 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
     </row>
-    <row r="2" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16093,7 +15962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16159,7 +16028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16210,7 +16079,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16264,7 +16133,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -16306,7 +16175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -16351,7 +16220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16389,7 +16258,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -16427,7 +16296,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -16462,7 +16331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -16494,7 +16363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -16526,7 +16395,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -16555,7 +16424,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -16578,7 +16447,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -16604,7 +16473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -16621,7 +16490,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -16632,7 +16501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -16646,7 +16515,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -16660,7 +16529,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -16671,7 +16540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -16685,7 +16554,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -16696,7 +16565,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -16707,7 +16576,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -16715,7 +16584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -16723,7 +16592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -16731,7 +16600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -16745,7 +16614,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -16756,7 +16625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -16767,7 +16636,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -16778,7 +16647,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -16786,7 +16655,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -16794,12 +16663,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -16966,14 +16835,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F70634-C069-4470-9D43-73E4CC5F1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8CE80-4ABA-4C20-953A-E5444F09676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4220,9 +4220,6 @@
     <t>direct and indirect trophic impact</t>
   </si>
   <si>
-    <t>presence or absence of dolphins in the proximity of active trawlers</t>
-  </si>
-  <si>
     <t>fishing effort (net length x soak time)</t>
   </si>
   <si>
@@ -4323,6 +4320,9 @@
   </si>
   <si>
     <t>Fishing operations</t>
+  </si>
+  <si>
+    <t>presence of active trawlers in proximity of dolphins</t>
   </si>
 </sst>
 </file>
@@ -4790,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR86" sqref="AR86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5133,7 +5133,7 @@
         <v>146</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>233</v>
@@ -5535,7 +5535,7 @@
         <v>134</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>233</v>
@@ -5669,7 +5669,7 @@
         <v>141</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>233</v>
@@ -5803,7 +5803,7 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>233</v>
@@ -6205,7 +6205,7 @@
         <v>134</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>233</v>
@@ -6339,7 +6339,7 @@
         <v>141</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>233</v>
@@ -6925,7 +6925,7 @@
         <v>159</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -7053,7 +7053,7 @@
         <v>159</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -7181,7 +7181,7 @@
         <v>159</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -7309,7 +7309,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -7440,7 +7440,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7568,7 +7568,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7749,7 +7749,7 @@
         <v>155</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>232</v>
@@ -7758,7 +7758,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7773,7 +7773,7 @@
         <v>208</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7877,7 +7877,7 @@
         <v>155</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7886,7 +7886,7 @@
         <v>162</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7996,7 +7996,7 @@
         <v>155</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -8005,7 +8005,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
@@ -8127,7 +8127,7 @@
         <v>155</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -8136,7 +8136,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -8261,7 +8261,7 @@
         <v>155</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -8270,7 +8270,7 @@
         <v>162</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
@@ -8395,7 +8395,7 @@
         <v>233</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8517,7 +8517,7 @@
         <v>233</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
@@ -8642,10 +8642,10 @@
         <v>162</v>
       </c>
       <c r="AO31" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AP31" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AQ31" s="11" t="s">
         <v>165</v>
@@ -8669,7 +8669,7 @@
         <v>209</v>
       </c>
       <c r="AX31" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9016,7 +9016,7 @@
         <v>160</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>165</v>
@@ -9147,7 +9147,7 @@
         <v>162</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>165</v>
@@ -9278,7 +9278,7 @@
         <v>160</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>165</v>
@@ -9400,7 +9400,7 @@
         <v>138</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AM39" s="11" t="s">
         <v>232</v>
@@ -9409,7 +9409,7 @@
         <v>160</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>165</v>
@@ -9531,7 +9531,7 @@
         <v>138</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>232</v>
@@ -9540,7 +9540,7 @@
         <v>162</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>165</v>
@@ -9659,7 +9659,7 @@
         <v>118</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM41" s="11" t="s">
         <v>232</v>
@@ -9668,7 +9668,7 @@
         <v>160</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ41" s="11" t="s">
         <v>165</v>
@@ -9796,7 +9796,7 @@
         <v>160</v>
       </c>
       <c r="AO42" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ42" s="11" t="s">
         <v>165</v>
@@ -9983,7 +9983,7 @@
         <v>160</v>
       </c>
       <c r="AO44" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ44" s="11" t="s">
         <v>164</v>
@@ -10117,7 +10117,7 @@
         <v>233</v>
       </c>
       <c r="AO45" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>164</v>
@@ -10251,7 +10251,7 @@
         <v>233</v>
       </c>
       <c r="AO46" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>164</v>
@@ -10349,7 +10349,7 @@
         <v>216</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AA47" s="11">
         <v>2</v>
@@ -10382,7 +10382,7 @@
         <v>233</v>
       </c>
       <c r="AO47" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AQ47" s="11" t="s">
         <v>164</v>
@@ -10394,7 +10394,7 @@
         <v>176</v>
       </c>
       <c r="AU47" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AV47" s="11" t="s">
         <v>199</v>
@@ -10403,7 +10403,7 @@
         <v>208</v>
       </c>
       <c r="AX47" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10516,7 +10516,7 @@
         <v>159</v>
       </c>
       <c r="AO48" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AP48" s="11" t="s">
         <v>573</v>
@@ -10653,7 +10653,7 @@
         <v>159</v>
       </c>
       <c r="AO49" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AP49" s="11" t="s">
         <v>573</v>
@@ -10790,7 +10790,7 @@
         <v>162</v>
       </c>
       <c r="AO50" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
@@ -10924,7 +10924,7 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
@@ -11058,7 +11058,7 @@
         <v>162</v>
       </c>
       <c r="AO52" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ52" s="11" t="s">
         <v>164</v>
@@ -11192,7 +11192,7 @@
         <v>162</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ53" s="11" t="s">
         <v>164</v>
@@ -11326,7 +11326,7 @@
         <v>162</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ54" s="11" t="s">
         <v>164</v>
@@ -11523,7 +11523,7 @@
         <v>162</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ56" s="11" t="s">
         <v>164</v>
@@ -11654,7 +11654,7 @@
         <v>162</v>
       </c>
       <c r="AO57" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>164</v>
@@ -12354,7 +12354,7 @@
         <v>233</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12482,7 +12482,7 @@
         <v>233</v>
       </c>
       <c r="AO64" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ64" s="11" t="s">
         <v>164</v>
@@ -12610,7 +12610,7 @@
         <v>233</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ65" s="11" t="s">
         <v>164</v>
@@ -12738,7 +12738,7 @@
         <v>233</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ66" s="11" t="s">
         <v>164</v>
@@ -12830,10 +12830,10 @@
         <v>216</v>
       </c>
       <c r="Y67" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z67" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="Z67" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="AA67" s="11">
         <v>3</v>
@@ -12860,7 +12860,7 @@
         <v>160</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12872,7 +12872,7 @@
         <v>175</v>
       </c>
       <c r="AT67" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AU67" s="11" t="s">
         <v>599</v>
@@ -12884,7 +12884,7 @@
         <v>208</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12955,10 +12955,10 @@
         <v>216</v>
       </c>
       <c r="Y68" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z68" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="Z68" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="AA68" s="11">
         <v>3</v>
@@ -12985,7 +12985,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>164</v>
@@ -12997,7 +12997,7 @@
         <v>175</v>
       </c>
       <c r="AT68" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AU68" s="11" t="s">
         <v>599</v>
@@ -13009,7 +13009,7 @@
         <v>208</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13080,10 +13080,10 @@
         <v>216</v>
       </c>
       <c r="Y69" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z69" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="AA69" s="11">
         <v>3</v>
@@ -13110,7 +13110,7 @@
         <v>160</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>164</v>
@@ -13122,10 +13122,10 @@
         <v>175</v>
       </c>
       <c r="AT69" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU69" s="11" t="s">
         <v>647</v>
-      </c>
-      <c r="AU69" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="AV69" s="11" t="s">
         <v>203</v>
@@ -13134,7 +13134,7 @@
         <v>208</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13205,10 +13205,10 @@
         <v>216</v>
       </c>
       <c r="Y70" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z70" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>645</v>
       </c>
       <c r="AA70" s="11">
         <v>3</v>
@@ -13235,7 +13235,7 @@
         <v>162</v>
       </c>
       <c r="AO70" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ70" s="11" t="s">
         <v>164</v>
@@ -13247,10 +13247,10 @@
         <v>175</v>
       </c>
       <c r="AT70" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU70" s="11" t="s">
         <v>647</v>
-      </c>
-      <c r="AU70" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="AV70" s="11" t="s">
         <v>203</v>
@@ -13259,7 +13259,7 @@
         <v>208</v>
       </c>
       <c r="AX70" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13369,7 +13369,7 @@
         <v>160</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13500,7 +13500,7 @@
         <v>160</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>164</v>
@@ -13631,7 +13631,7 @@
         <v>160</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>164</v>
@@ -13762,7 +13762,7 @@
         <v>160</v>
       </c>
       <c r="AO74" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AQ74" s="11" t="s">
         <v>164</v>
@@ -13893,7 +13893,7 @@
         <v>233</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>164</v>
@@ -14024,7 +14024,7 @@
         <v>233</v>
       </c>
       <c r="AO76" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ76" s="11" t="s">
         <v>164</v>
@@ -14155,7 +14155,7 @@
         <v>161</v>
       </c>
       <c r="AO77" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>164</v>
@@ -14289,7 +14289,7 @@
         <v>161</v>
       </c>
       <c r="AO78" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ78" s="11" t="s">
         <v>164</v>
@@ -16688,6 +16688,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -16801,22 +16816,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16830,27 +16853,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8CE80-4ABA-4C20-953A-E5444F09676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275B5A7-4B1C-4DDD-8FDF-3B8DA040CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$81</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="665">
   <si>
     <t>SearchID</t>
   </si>
@@ -4323,6 +4323,9 @@
   </si>
   <si>
     <t>presence of active trawlers in proximity of dolphins</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
   </si>
 </sst>
 </file>
@@ -4788,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX80"/>
+  <dimension ref="A1:AX81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR86" sqref="AR86"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7865,7 +7868,7 @@
         <v>4.2</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>107</v>
+        <v>664</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>115</v>
@@ -10476,9 +10479,6 @@
       <c r="X48" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>434</v>
-      </c>
       <c r="Z48" s="11" t="s">
         <v>570</v>
       </c>
@@ -10614,7 +10614,10 @@
         <v>55</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>70</v>
+        <v>113</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z49" s="11" t="s">
         <v>570</v>
@@ -10635,7 +10638,7 @@
         <v>268</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>113</v>
+        <v>664</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>115</v>
@@ -10685,43 +10688,43 @@
     </row>
     <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E50" s="11">
         <v>2016</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>248</v>
@@ -10730,192 +10733,195 @@
         <v>249</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AA50" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB50" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="11">
         <v>3</v>
       </c>
-      <c r="AD50" s="10" t="s">
-        <v>582</v>
+      <c r="AD50" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="AF50" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="AI50" s="11" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="AJ50" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="AL50" s="11" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN50" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO50" s="11" t="s">
-        <v>635</v>
+        <v>159</v>
+      </c>
+      <c r="AO50" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AP50" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR50" s="11" t="s">
-        <v>422</v>
+        <v>197</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AT50" s="11" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AU50" s="11" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AV50" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW50" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX50" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E51" s="13">
-        <v>2015</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="N51" s="13" t="s">
+      <c r="C51" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2016</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="N51" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="O51" s="13" t="s">
+      <c r="O51" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="P51" s="13" t="s">
+      <c r="P51" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="Q51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="13" t="s">
-        <v>27</v>
+      <c r="S51" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="T51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X51" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>583</v>
-      </c>
       <c r="Z51" s="11" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AA51" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB51" s="11">
         <v>2</v>
       </c>
-      <c r="AB51" s="11">
-        <v>1</v>
-      </c>
       <c r="AC51" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="AF51" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF51" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>116</v>
+        <v>220</v>
+      </c>
+      <c r="AI51" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="AL51" s="11" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="AM51" s="11" t="s">
         <v>232</v>
@@ -10924,31 +10930,31 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>170</v>
+        <v>422</v>
       </c>
       <c r="AS51" s="11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AT51" s="11" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="AU51" s="11" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AV51" s="11" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW51" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX51" s="11" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11064,10 +11070,10 @@
         <v>164</v>
       </c>
       <c r="AR52" s="11" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS52" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AT52" s="11" t="s">
         <v>587</v>
@@ -11204,7 +11210,7 @@
         <v>192</v>
       </c>
       <c r="AT53" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>591</v>
@@ -11317,7 +11323,7 @@
         <v>116</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AM54" s="11" t="s">
         <v>232</v>
@@ -11332,13 +11338,13 @@
         <v>164</v>
       </c>
       <c r="AR54" s="11" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS54" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AT54" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AU54" s="11" t="s">
         <v>591</v>
@@ -11355,43 +11361,43 @@
     </row>
     <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E55" s="13">
         <v>2015</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>455</v>
+        <v>283</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>248</v>
@@ -11400,58 +11406,132 @@
         <v>249</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S55" s="13"/>
+      <c r="S55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W55" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z55" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="10" t="s">
+        <v>585</v>
+      </c>
       <c r="AF55" s="13" t="s">
-        <v>250</v>
+        <v>268</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL55" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AM55" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN55" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO55" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="AQ55" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR55" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT55" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AU55" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AV55" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW55" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX55" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E56" s="13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>245</v>
+        <v>457</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N56" s="13" t="s">
         <v>248</v>
@@ -11460,88 +11540,17 @@
         <v>249</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA56" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD56" s="10" t="s">
-        <v>594</v>
-      </c>
+      <c r="R56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S56" s="13"/>
       <c r="AF56" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG56" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH56" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI56" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL56" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM56" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN56" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO56" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ56" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR56" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV56" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW56" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX56" s="11" t="s">
-        <v>596</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11660,10 +11669,7 @@
         <v>164</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="AU57" s="11" t="s">
         <v>595</v>
@@ -11680,43 +11686,43 @@
     </row>
     <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E58" s="13">
         <v>2014</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>473</v>
+        <v>245</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>474</v>
+        <v>245</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>248</v>
@@ -11725,58 +11731,132 @@
         <v>249</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S58" s="13"/>
+      <c r="S58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="10" t="s">
+        <v>594</v>
+      </c>
       <c r="AF58" s="13" t="s">
-        <v>307</v>
+        <v>268</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI58" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL58" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM58" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN58" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="AQ58" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR58" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS58" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU58" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV58" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW58" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX58" s="11" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E59" s="13">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>482</v>
+        <v>267</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>248</v>
@@ -11790,80 +11870,12 @@
       <c r="Q59" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U59" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V59" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W59" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="AA59" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB59" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC59" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD59" s="10" t="s">
-        <v>598</v>
-      </c>
+      <c r="R59" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S59" s="13"/>
       <c r="AF59" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG59" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH59" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI59" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK59" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM59" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO59" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="AQ59" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR59" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AS59" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU59" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="AV59" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW59" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX59" s="11" t="s">
-        <v>602</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11961,7 +11973,7 @@
         <v>120</v>
       </c>
       <c r="AI60" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK60" s="11" t="s">
         <v>148</v>
@@ -12089,7 +12101,7 @@
         <v>120</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK61" s="11" t="s">
         <v>148</v>
@@ -12107,7 +12119,7 @@
         <v>421</v>
       </c>
       <c r="AS61" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU61" s="11" t="s">
         <v>599</v>
@@ -12217,7 +12229,7 @@
         <v>120</v>
       </c>
       <c r="AI62" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK62" s="11" t="s">
         <v>148</v>
@@ -12345,7 +12357,7 @@
         <v>120</v>
       </c>
       <c r="AI63" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK63" s="11" t="s">
         <v>148</v>
@@ -12354,7 +12366,7 @@
         <v>233</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>649</v>
+        <v>550</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12363,19 +12375,19 @@
         <v>421</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU63" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW63" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12473,7 +12485,7 @@
         <v>120</v>
       </c>
       <c r="AI64" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK64" s="11" t="s">
         <v>148</v>
@@ -12601,7 +12613,7 @@
         <v>120</v>
       </c>
       <c r="AI65" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK65" s="11" t="s">
         <v>148</v>
@@ -12619,7 +12631,7 @@
         <v>421</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU65" s="11" t="s">
         <v>600</v>
@@ -12729,7 +12741,7 @@
         <v>120</v>
       </c>
       <c r="AI66" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK66" s="11" t="s">
         <v>148</v>
@@ -12764,43 +12776,43 @@
     </row>
     <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E67" s="13">
         <v>2013</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>248</v>
@@ -12815,52 +12827,58 @@
         <v>21</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="V67" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="W67" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y67" s="11" t="s">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="AA67" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB67" s="11">
         <v>3</v>
       </c>
-      <c r="AB67" s="11">
-        <v>2</v>
-      </c>
       <c r="AC67" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD67" s="10" t="s">
+        <v>598</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>265</v>
+        <v>487</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI67" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK67" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AM67" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN67" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12869,22 +12887,19 @@
         <v>421</v>
       </c>
       <c r="AS67" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT67" s="11" t="s">
-        <v>646</v>
+        <v>176</v>
       </c>
       <c r="AU67" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AV67" s="11" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW67" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12982,7 +12997,7 @@
         <v>232</v>
       </c>
       <c r="AN68" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO68" s="11" t="s">
         <v>645</v>
@@ -13107,7 +13122,7 @@
         <v>232</v>
       </c>
       <c r="AN69" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO69" s="11" t="s">
         <v>645</v>
@@ -13125,10 +13140,10 @@
         <v>646</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>647</v>
+        <v>599</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW69" s="11" t="s">
         <v>208</v>
@@ -13232,7 +13247,7 @@
         <v>232</v>
       </c>
       <c r="AN70" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO70" s="11" t="s">
         <v>645</v>
@@ -13264,52 +13279,52 @@
     </row>
     <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E71" s="13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>499</v>
+        <v>331</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q71" s="13" t="s">
         <v>21</v>
@@ -13318,58 +13333,49 @@
         <v>31</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="V71" s="11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X71" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="Y71" s="11" t="s">
+        <v>643</v>
+      </c>
       <c r="Z71" s="11" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="AA71" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB71" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC71" s="11">
         <v>2</v>
       </c>
-      <c r="AD71" s="10" t="s">
-        <v>607</v>
-      </c>
       <c r="AF71" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG71" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH71" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI71" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL71" s="11" t="s">
-        <v>604</v>
+        <v>124</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN71" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13377,11 +13383,14 @@
       <c r="AR71" s="11" t="s">
         <v>421</v>
       </c>
+      <c r="AS71" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AT71" s="11" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="AU71" s="11" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="AV71" s="11" t="s">
         <v>203</v>
@@ -13390,7 +13399,7 @@
         <v>208</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13461,7 +13470,7 @@
         <v>51</v>
       </c>
       <c r="X72" s="11" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="Z72" s="11" t="s">
         <v>603</v>
@@ -13592,7 +13601,7 @@
         <v>51</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z73" s="11" t="s">
         <v>603</v>
@@ -13643,16 +13652,16 @@
         <v>604</v>
       </c>
       <c r="AU73" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>203</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13723,7 +13732,7 @@
         <v>51</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="Z74" s="11" t="s">
         <v>603</v>
@@ -13788,112 +13797,112 @@
     </row>
     <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E75" s="13">
         <v>2012</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="O75" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>513</v>
+        <v>316</v>
       </c>
       <c r="Q75" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W75" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AA75" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="11">
         <v>2</v>
       </c>
-      <c r="AB75" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC75" s="11">
-        <v>1</v>
+      <c r="AD75" s="10" t="s">
+        <v>607</v>
       </c>
       <c r="AF75" s="13" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AG75" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ75" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK75" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AL75" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AM75" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN75" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>164</v>
@@ -13901,20 +13910,20 @@
       <c r="AR75" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS75" s="11" t="s">
-        <v>175</v>
+      <c r="AT75" s="11" t="s">
+        <v>604</v>
       </c>
       <c r="AU75" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AV75" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW75" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX75" s="11" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14036,10 +14045,10 @@
         <v>175</v>
       </c>
       <c r="AU76" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AV76" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW76" s="11" t="s">
         <v>208</v>
@@ -14050,43 +14059,43 @@
     </row>
     <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E77" s="13">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>248</v>
@@ -14095,19 +14104,19 @@
         <v>249</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>245</v>
+        <v>513</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T77" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V77" s="11" t="s">
         <v>41</v>
@@ -14116,46 +14125,46 @@
         <v>55</v>
       </c>
       <c r="X77" s="11" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AA77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC77" s="11">
         <v>1</v>
       </c>
       <c r="AF77" s="13" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AG77" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH77" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI77" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ77" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK77" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL77" s="11" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AM77" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN77" s="11" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO77" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>164</v>
@@ -14166,14 +14175,11 @@
       <c r="AS77" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>614</v>
-      </c>
       <c r="AU77" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AV77" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>208</v>
@@ -14280,7 +14286,7 @@
         <v>150</v>
       </c>
       <c r="AL78" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AM78" s="11" t="s">
         <v>232</v>
@@ -14310,51 +14316,51 @@
         <v>199</v>
       </c>
       <c r="AW78" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX78" s="11" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E79" s="13">
         <v>2011</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>527</v>
+        <v>303</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L79" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>248</v>
@@ -14369,37 +14375,34 @@
         <v>21</v>
       </c>
       <c r="S79" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T79" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V79" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W79" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X79" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y79" s="12" t="s">
-        <v>619</v>
-      </c>
       <c r="Z79" s="11" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AA79" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB79" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC79" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF79" s="13" t="s">
         <v>307</v>
@@ -14408,28 +14411,25 @@
         <v>109</v>
       </c>
       <c r="AH79" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI79" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ79" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK79" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL79" s="10" t="s">
-        <v>624</v>
+      <c r="AL79" s="11" t="s">
+        <v>617</v>
       </c>
       <c r="AM79" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN79" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO79" s="11" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="AQ79" s="11" t="s">
         <v>164</v>
@@ -14437,17 +14437,23 @@
       <c r="AR79" s="11" t="s">
         <v>421</v>
       </c>
+      <c r="AS79" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT79" s="11" t="s">
+        <v>614</v>
+      </c>
       <c r="AU79" s="11" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AV79" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW79" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX79" s="11" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -14554,7 +14560,7 @@
         <v>150</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM80" s="11" t="s">
         <v>232</v>
@@ -14578,9 +14584,143 @@
         <v>199</v>
       </c>
       <c r="AW80" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX80" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2011</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q81" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V81" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W81" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X81" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z81" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA81" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB81" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC81" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF81" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG81" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH81" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI81" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ81" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK81" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL81" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="AM81" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN81" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO81" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR81" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU81" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AV81" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW81" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AX80" s="11" t="s">
+      <c r="AX81" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -14602,7 +14742,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576 AO81:AO1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO82:AO1048576 AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14611,12 +14751,12 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R55:R1048576 AF3:AF80 R3:R50</xm:sqref>
+          <xm:sqref>R56:R1048576 R3:R51 AF3:AF81</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -14676,7 +14816,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG1048576</xm:sqref>
+          <xm:sqref>AG3:AG24 AG26:AG48 AG50:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
@@ -14702,6 +14842,12 @@
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D836B117-5631-4F99-9AA2-A5DA252E03A0}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG25 AG49</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -14712,8 +14858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15288,6 +15434,9 @@
       </c>
       <c r="X10" t="s">
         <v>74</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>664</v>
       </c>
       <c r="AH10" t="s">
         <v>119</v>
@@ -16827,14 +16976,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275B5A7-4B1C-4DDD-8FDF-3B8DA040CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4275B5A7-4B1C-4DDD-8FDF-3B8DA040CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1F2BB3-21E5-48E1-8D4E-622025CF2887}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$80</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="663">
   <si>
     <t>SearchID</t>
   </si>
@@ -3961,9 +3961,6 @@
     <t>disturbed habitats may either be the result of natural disturbances generated by currents, or be the result of bottom fishing activities</t>
   </si>
   <si>
-    <t>descriptive</t>
-  </si>
-  <si>
     <t>oceanographic-sediment model simulation</t>
   </si>
   <si>
@@ -4224,9 +4221,6 @@
   </si>
   <si>
     <t>entanglement</t>
-  </si>
-  <si>
-    <t>damage to fishing gears _ entanglement</t>
   </si>
   <si>
     <t>Total estimated prey/catch consumption</t>
@@ -4791,33 +4785,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX81"/>
+  <dimension ref="A1:AX80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ84" sqref="AQ84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.7265625" customWidth="1"/>
-    <col min="28" max="28" width="16.26953125" customWidth="1"/>
-    <col min="34" max="35" width="17.7265625" customWidth="1"/>
-    <col min="36" max="36" width="18.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.7265625" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.7265625" customWidth="1"/>
-    <col min="48" max="48" width="27.1796875" customWidth="1"/>
-    <col min="50" max="50" width="22.26953125" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" customWidth="1"/>
+    <col min="50" max="50" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -4883,7 +4877,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5005,7 +4999,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5035,7 +5029,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>239</v>
       </c>
@@ -5136,13 +5130,13 @@
         <v>146</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -5169,7 +5163,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>239</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>233</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -5303,7 +5297,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>239</v>
       </c>
@@ -5410,7 +5404,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -5437,7 +5431,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>239</v>
       </c>
@@ -5538,13 +5532,13 @@
         <v>134</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
@@ -5571,7 +5565,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>239</v>
       </c>
@@ -5672,13 +5666,13 @@
         <v>141</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
@@ -5705,7 +5699,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>239</v>
       </c>
@@ -5806,13 +5800,13 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5839,7 +5833,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>239</v>
       </c>
@@ -5946,7 +5940,7 @@
         <v>233</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5973,7 +5967,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>239</v>
       </c>
@@ -6080,7 +6074,7 @@
         <v>233</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -6107,7 +6101,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>239</v>
       </c>
@@ -6208,13 +6202,13 @@
         <v>134</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -6241,7 +6235,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>239</v>
       </c>
@@ -6342,13 +6336,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -6375,7 +6369,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
@@ -6434,7 +6428,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>258</v>
       </c>
@@ -6535,7 +6529,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6559,7 +6553,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>258</v>
       </c>
@@ -6669,7 +6663,7 @@
         <v>161</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AP15" s="11" t="s">
         <v>417</v>
@@ -6696,7 +6690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>258</v>
       </c>
@@ -6803,7 +6797,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6824,7 +6818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>403</v>
       </c>
@@ -6928,7 +6922,7 @@
         <v>159</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6952,7 +6946,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>403</v>
       </c>
@@ -7056,7 +7050,7 @@
         <v>159</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -7080,7 +7074,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>403</v>
       </c>
@@ -7184,7 +7178,7 @@
         <v>159</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -7208,7 +7202,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>411</v>
       </c>
@@ -7312,7 +7306,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -7339,7 +7333,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>411</v>
       </c>
@@ -7443,7 +7437,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7467,7 +7461,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>411</v>
       </c>
@@ -7571,7 +7565,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7595,7 +7589,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
@@ -7651,7 +7645,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>278</v>
       </c>
@@ -7752,7 +7746,7 @@
         <v>155</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>232</v>
@@ -7761,7 +7755,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7773,13 +7767,13 @@
         <v>238</v>
       </c>
       <c r="AW24" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>278</v>
       </c>
@@ -7847,28 +7841,25 @@
         <v>55</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>434</v>
+        <v>75</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>543</v>
+        <v>435</v>
       </c>
       <c r="AA25" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC25" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF25" s="11">
         <v>4.2</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>664</v>
+        <v>107</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>115</v>
@@ -7880,7 +7871,7 @@
         <v>155</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7888,20 +7879,32 @@
       <c r="AN25" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO25" s="11" t="s">
-        <v>631</v>
+      <c r="AO25" s="12" t="s">
+        <v>630</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AR25" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU25" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="AV25" s="11" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AX25" s="11" t="s">
+        <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>278</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>155</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -8008,16 +8011,19 @@
         <v>162</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>421</v>
+        <v>169</v>
+      </c>
+      <c r="AS26" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="AT26" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU26" s="11" t="s">
         <v>441</v>
@@ -8028,11 +8034,11 @@
       <c r="AW26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX26" s="11" t="s">
-        <v>442</v>
+      <c r="AX26" s="10" t="s">
+        <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>278</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>155</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -8139,19 +8145,19 @@
         <v>162</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AU27" s="11" t="s">
         <v>441</v>
@@ -8162,49 +8168,49 @@
       <c r="AW27" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX27" s="10" t="s">
-        <v>443</v>
+      <c r="AX27" s="11" t="s">
+        <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E28" s="11">
         <v>2019</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>248</v>
@@ -8213,31 +8219,31 @@
         <v>249</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
       <c r="AA28" s="11">
         <v>2</v>
@@ -8246,61 +8252,49 @@
         <v>2</v>
       </c>
       <c r="AC28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>651</v>
+        <v>121</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="AM28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO28" s="12" t="s">
-        <v>632</v>
+        <v>233</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS28" s="11" t="s">
-        <v>190</v>
+        <v>421</v>
       </c>
       <c r="AT28" s="11" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>441</v>
+        <v>545</v>
       </c>
       <c r="AV28" s="11" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AW28" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>289</v>
       </c>
@@ -8371,7 +8365,7 @@
         <v>80</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AA29" s="11">
         <v>2</v>
@@ -8392,13 +8386,13 @@
         <v>121</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8407,10 +8401,10 @@
         <v>421</v>
       </c>
       <c r="AT29" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="AU29" s="11" t="s">
         <v>545</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>546</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>113</v>
@@ -8419,48 +8413,48 @@
         <v>208</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E30" s="11">
         <v>2019</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>248</v>
@@ -8469,31 +8463,31 @@
         <v>249</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>57</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W30" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AA30" s="11">
         <v>2</v>
@@ -8502,72 +8496,81 @@
         <v>2</v>
       </c>
       <c r="AC30" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>633</v>
+        <v>658</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>657</v>
       </c>
       <c r="AQ30" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
+      </c>
+      <c r="AS30" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="AT30" s="11" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AU30" s="11" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AV30" s="11" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="AW30" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX30" s="11" t="s">
-        <v>547</v>
+        <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E31" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>245</v>
@@ -8576,13 +8579,13 @@
         <v>245</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>248</v>
@@ -8591,129 +8594,57 @@
         <v>249</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="11">
-        <v>1</v>
+      <c r="R31" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG31" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH31" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM31" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN31" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR31" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT31" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="AU31" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="AV31" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW31" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" s="11" t="s">
-        <v>661</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E32" s="11">
         <v>2018</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>248</v>
@@ -8722,7 +8653,7 @@
         <v>249</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>21</v>
@@ -8731,48 +8662,48 @@
         <v>84</v>
       </c>
       <c r="AF32" s="11" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E33" s="11">
         <v>2018</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>248</v>
@@ -8790,48 +8721,48 @@
         <v>84</v>
       </c>
       <c r="AF33" s="11" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E34" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>248</v>
@@ -8840,57 +8771,58 @@
         <v>249</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Y34" s="12"/>
       <c r="AF34" s="11" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E35" s="11">
         <v>2017</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>248</v>
@@ -8899,20 +8831,91 @@
         <v>249</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y35" s="12"/>
+      <c r="S35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>558</v>
+      </c>
       <c r="AF35" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN35" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO35" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW35" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX35" s="10" t="s">
+        <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>346</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>69</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA36" s="11">
         <v>3</v>
@@ -8995,7 +8998,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF36" s="11" t="s">
         <v>307</v>
@@ -9010,16 +9013,16 @@
         <v>138</v>
       </c>
       <c r="AL36" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>165</v>
@@ -9031,19 +9034,19 @@
         <v>196</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV36" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX36" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>346</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>69</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA37" s="11">
         <v>3</v>
@@ -9126,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF37" s="11" t="s">
         <v>307</v>
@@ -9141,16 +9144,16 @@
         <v>138</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>165</v>
@@ -9159,22 +9162,22 @@
         <v>197</v>
       </c>
       <c r="AS37" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX37" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>346</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>69</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA38" s="11">
         <v>3</v>
@@ -9257,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF38" s="11" t="s">
         <v>307</v>
@@ -9272,7 +9275,7 @@
         <v>138</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>232</v>
@@ -9281,7 +9284,7 @@
         <v>160</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>165</v>
@@ -9290,10 +9293,10 @@
         <v>197</v>
       </c>
       <c r="AS38" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU38" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV38" s="11" t="s">
         <v>238</v>
@@ -9302,10 +9305,10 @@
         <v>207</v>
       </c>
       <c r="AX38" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>346</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>69</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA39" s="11">
         <v>3</v>
@@ -9388,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF39" s="11" t="s">
         <v>307</v>
@@ -9403,16 +9406,16 @@
         <v>138</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM39" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN39" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>165</v>
@@ -9424,7 +9427,7 @@
         <v>194</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV39" s="11" t="s">
         <v>238</v>
@@ -9433,10 +9436,10 @@
         <v>207</v>
       </c>
       <c r="AX39" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>346</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>69</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA40" s="11">
         <v>3</v>
@@ -9519,7 +9522,7 @@
         <v>2</v>
       </c>
       <c r="AD40" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF40" s="11" t="s">
         <v>307</v>
@@ -9528,34 +9531,28 @@
         <v>109</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI40" s="11" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN40" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS40" s="11" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="AU40" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV40" s="11" t="s">
         <v>238</v>
@@ -9567,7 +9564,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>346</v>
       </c>
@@ -9638,7 +9635,7 @@
         <v>69</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AA41" s="11">
         <v>3</v>
@@ -9650,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF41" s="11" t="s">
         <v>307</v>
@@ -9659,10 +9656,13 @@
         <v>109</v>
       </c>
       <c r="AH41" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="AM41" s="11" t="s">
         <v>232</v>
@@ -9671,16 +9671,19 @@
         <v>160</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ41" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AR41" s="11" t="s">
-        <v>113</v>
+        <v>197</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="AU41" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AV41" s="11" t="s">
         <v>238</v>
@@ -9689,48 +9692,48 @@
         <v>207</v>
       </c>
       <c r="AX41" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E42" s="11">
         <v>2017</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>248</v>
@@ -9739,129 +9742,57 @@
         <v>249</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB42" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD42" s="11" t="s">
-        <v>559</v>
+      <c r="R42" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH42" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI42" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL42" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="AM42" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO42" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="AQ42" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR42" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS42" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="AV42" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW42" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX42" s="10" t="s">
-        <v>558</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E43" s="11">
         <v>2017</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>248</v>
@@ -9870,57 +9801,129 @@
         <v>249</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>84</v>
+      <c r="S43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>3</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL43" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AU43" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E44" s="11">
         <v>2017</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>248</v>
@@ -9929,7 +9932,7 @@
         <v>249</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>21</v>
@@ -9938,25 +9941,25 @@
         <v>26</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W44" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X44" s="11" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AA44" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB44" s="11">
         <v>3</v>
@@ -9965,55 +9968,58 @@
         <v>3</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AG44" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH44" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI44" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="AJ44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK44" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AL44" s="11" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AM44" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN44" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO44" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AQ44" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR44" s="11" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="AS44" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AT44" s="11" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AU44" s="11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AV44" s="11" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AW44" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX44" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>369</v>
       </c>
@@ -10084,7 +10090,7 @@
         <v>215</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AA45" s="11">
         <v>3</v>
@@ -10114,13 +10120,13 @@
         <v>150</v>
       </c>
       <c r="AL45" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM45" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO45" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>164</v>
@@ -10129,13 +10135,13 @@
         <v>421</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT45" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU45" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="AU45" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>113</v>
@@ -10144,48 +10150,48 @@
         <v>210</v>
       </c>
       <c r="AX45" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E46" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>248</v>
@@ -10194,46 +10200,46 @@
         <v>249</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U46" s="11" t="s">
         <v>57</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W46" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="AA46" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB46" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF46" s="11" t="s">
         <v>250</v>
       </c>
       <c r="AG46" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH46" s="11" t="s">
         <v>120</v>
@@ -10245,10 +10251,7 @@
         <v>113</v>
       </c>
       <c r="AK46" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL46" s="11" t="s">
-        <v>566</v>
+        <v>141</v>
       </c>
       <c r="AM46" s="11" t="s">
         <v>233</v>
@@ -10265,61 +10268,58 @@
       <c r="AS46" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="AU46" s="11" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="AV46" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW46" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX46" s="11" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E47" s="11">
         <v>2016</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>248</v>
@@ -10334,82 +10334,91 @@
         <v>21</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T47" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W47" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>638</v>
+        <v>569</v>
       </c>
       <c r="AA47" s="11">
         <v>2</v>
       </c>
       <c r="AB47" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD47" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI47" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ47" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK47" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="AL47" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO47" s="11" t="s">
-        <v>639</v>
+        <v>159</v>
+      </c>
+      <c r="AO47" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AP47" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="AQ47" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR47" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="AS47" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="AT47" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="AU47" s="11" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="AV47" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW47" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX47" s="11" t="s">
-        <v>641</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>383</v>
       </c>
@@ -10477,10 +10486,13 @@
         <v>55</v>
       </c>
       <c r="X48" s="11" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA48" s="11">
         <v>2</v>
@@ -10492,13 +10504,13 @@
         <v>3</v>
       </c>
       <c r="AD48" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF48" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>113</v>
+        <v>662</v>
       </c>
       <c r="AH48" s="11" t="s">
         <v>115</v>
@@ -10510,16 +10522,16 @@
         <v>155</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM48" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AO48" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AP48" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AQ48" s="11" t="s">
         <v>164</v>
@@ -10531,10 +10543,10 @@
         <v>193</v>
       </c>
       <c r="AT48" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU48" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AV48" s="11" t="s">
         <v>237</v>
@@ -10543,10 +10555,10 @@
         <v>207</v>
       </c>
       <c r="AX48" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>383</v>
       </c>
@@ -10614,13 +10626,10 @@
         <v>55</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA49" s="11">
         <v>2</v>
@@ -10632,13 +10641,13 @@
         <v>3</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF49" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>664</v>
+        <v>113</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>115</v>
@@ -10650,16 +10659,16 @@
         <v>155</v>
       </c>
       <c r="AL49" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM49" s="11" t="s">
         <v>159</v>
       </c>
       <c r="AO49" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AP49" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AQ49" s="11" t="s">
         <v>164</v>
@@ -10671,10 +10680,10 @@
         <v>193</v>
       </c>
       <c r="AT49" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AU49" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AV49" s="11" t="s">
         <v>237</v>
@@ -10683,48 +10692,48 @@
         <v>207</v>
       </c>
       <c r="AX49" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E50" s="11">
         <v>2016</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>248</v>
@@ -10733,195 +10742,192 @@
         <v>249</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V50" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AA50" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="11">
         <v>2</v>
-      </c>
-      <c r="AB50" s="11">
-        <v>1</v>
       </c>
       <c r="AC50" s="11">
         <v>3</v>
       </c>
-      <c r="AD50" s="11" t="s">
-        <v>575</v>
+      <c r="AD50" s="10" t="s">
+        <v>581</v>
       </c>
       <c r="AF50" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI50" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AL50" s="11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AM50" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO50" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AP50" s="11" t="s">
-        <v>573</v>
+        <v>232</v>
+      </c>
+      <c r="AN50" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO50" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR50" s="11" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="AT50" s="11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="AU50" s="11" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AV50" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW50" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX50" s="11" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E51" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="N51" s="11" t="s">
+      <c r="C51" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="N51" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="11" t="s">
-        <v>26</v>
+      <c r="S51" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="T51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X51" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y51" s="11" t="s">
+        <v>582</v>
+      </c>
       <c r="Z51" s="11" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AA51" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="AF51" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF51" s="13" t="s">
         <v>268</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI51" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AL51" s="11" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AM51" s="11" t="s">
         <v>232</v>
@@ -10930,34 +10936,34 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR51" s="11" t="s">
-        <v>422</v>
+        <v>170</v>
       </c>
       <c r="AS51" s="11" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AT51" s="11" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="AU51" s="11" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="AV51" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW51" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX51" s="11" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>444</v>
       </c>
@@ -11028,10 +11034,10 @@
         <v>69</v>
       </c>
       <c r="Y52" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z52" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="Z52" s="11" t="s">
-        <v>584</v>
       </c>
       <c r="AA52" s="11">
         <v>2</v>
@@ -11043,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF52" s="13" t="s">
         <v>268</v>
@@ -11055,7 +11061,7 @@
         <v>116</v>
       </c>
       <c r="AL52" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AM52" s="11" t="s">
         <v>232</v>
@@ -11064,22 +11070,22 @@
         <v>162</v>
       </c>
       <c r="AO52" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AQ52" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR52" s="11" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS52" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AT52" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AU52" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV52" s="11" t="s">
         <v>238</v>
@@ -11088,10 +11094,10 @@
         <v>207</v>
       </c>
       <c r="AX52" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>444</v>
       </c>
@@ -11162,10 +11168,10 @@
         <v>69</v>
       </c>
       <c r="Y53" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z53" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>584</v>
       </c>
       <c r="AA53" s="11">
         <v>2</v>
@@ -11177,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="AD53" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF53" s="13" t="s">
         <v>268</v>
@@ -11189,7 +11195,7 @@
         <v>116</v>
       </c>
       <c r="AL53" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AM53" s="11" t="s">
         <v>232</v>
@@ -11198,7 +11204,7 @@
         <v>162</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AQ53" s="11" t="s">
         <v>164</v>
@@ -11210,10 +11216,10 @@
         <v>192</v>
       </c>
       <c r="AT53" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AU53" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>238</v>
@@ -11222,10 +11228,10 @@
         <v>207</v>
       </c>
       <c r="AX53" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>444</v>
       </c>
@@ -11296,10 +11302,10 @@
         <v>69</v>
       </c>
       <c r="Y54" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z54" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>584</v>
       </c>
       <c r="AA54" s="11">
         <v>2</v>
@@ -11311,7 +11317,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF54" s="13" t="s">
         <v>268</v>
@@ -11323,7 +11329,7 @@
         <v>116</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AM54" s="11" t="s">
         <v>232</v>
@@ -11332,22 +11338,22 @@
         <v>162</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AQ54" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR54" s="11" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS54" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AT54" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AU54" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AV54" s="11" t="s">
         <v>238</v>
@@ -11356,48 +11362,48 @@
         <v>207</v>
       </c>
       <c r="AX54" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E55" s="13">
         <v>2015</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>248</v>
@@ -11406,132 +11412,58 @@
         <v>249</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U55" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA55" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB55" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="10" t="s">
-        <v>585</v>
-      </c>
+      <c r="R55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S55" s="13"/>
       <c r="AF55" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL55" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN55" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO55" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ55" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR55" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU55" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="AV55" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW55" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX55" s="11" t="s">
-        <v>592</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E56" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>457</v>
+        <v>245</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>458</v>
+        <v>245</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="N56" s="13" t="s">
         <v>248</v>
@@ -11540,20 +11472,91 @@
         <v>249</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S56" s="13"/>
+      <c r="S56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="X56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="10" t="s">
+        <v>593</v>
+      </c>
       <c r="AF56" s="13" t="s">
-        <v>250</v>
+        <v>268</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI56" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL56" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM56" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN56" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO56" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="AQ56" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR56" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU56" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="AV56" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW56" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX56" s="11" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>461</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>434</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA57" s="11">
         <v>1</v>
@@ -11639,7 +11642,7 @@
         <v>3</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF57" s="13" t="s">
         <v>268</v>
@@ -11663,16 +11666,19 @@
         <v>162</v>
       </c>
       <c r="AO57" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>113</v>
+        <v>170</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="AU57" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AV57" s="11" t="s">
         <v>238</v>
@@ -11681,48 +11687,48 @@
         <v>207</v>
       </c>
       <c r="AX57" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E58" s="13">
         <v>2014</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>311</v>
+        <v>471</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>248</v>
@@ -11731,132 +11737,58 @@
         <v>249</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W58" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z58" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA58" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC58" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD58" s="10" t="s">
-        <v>594</v>
-      </c>
+      <c r="R58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S58" s="13"/>
       <c r="AF58" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG58" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI58" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL58" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM58" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN58" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO58" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ58" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU58" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV58" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW58" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX58" s="11" t="s">
-        <v>596</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E59" s="13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>248</v>
@@ -11870,15 +11802,83 @@
       <c r="Q59" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S59" s="13"/>
+      <c r="S59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W59" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="10" t="s">
+        <v>597</v>
+      </c>
       <c r="AF59" s="13" t="s">
-        <v>307</v>
+        <v>487</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM59" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO59" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AQ59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU59" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AV59" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX59" s="11" t="s">
+        <v>601</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>477</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>80</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA60" s="11">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="AD60" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF60" s="13" t="s">
         <v>487</v>
@@ -11973,7 +11973,7 @@
         <v>120</v>
       </c>
       <c r="AI60" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK60" s="11" t="s">
         <v>148</v>
@@ -11982,7 +11982,7 @@
         <v>233</v>
       </c>
       <c r="AO60" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AQ60" s="11" t="s">
         <v>164</v>
@@ -11994,7 +11994,7 @@
         <v>175</v>
       </c>
       <c r="AU60" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV60" s="11" t="s">
         <v>199</v>
@@ -12003,10 +12003,10 @@
         <v>208</v>
       </c>
       <c r="AX60" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>477</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>80</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA61" s="11">
         <v>2</v>
@@ -12089,7 +12089,7 @@
         <v>3</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF61" s="13" t="s">
         <v>487</v>
@@ -12101,7 +12101,7 @@
         <v>120</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK61" s="11" t="s">
         <v>148</v>
@@ -12110,7 +12110,7 @@
         <v>233</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AQ61" s="11" t="s">
         <v>164</v>
@@ -12119,10 +12119,10 @@
         <v>421</v>
       </c>
       <c r="AS61" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU61" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>199</v>
@@ -12131,10 +12131,10 @@
         <v>208</v>
       </c>
       <c r="AX61" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>477</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>80</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA62" s="11">
         <v>2</v>
@@ -12217,7 +12217,7 @@
         <v>3</v>
       </c>
       <c r="AD62" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF62" s="13" t="s">
         <v>487</v>
@@ -12229,7 +12229,7 @@
         <v>120</v>
       </c>
       <c r="AI62" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK62" s="11" t="s">
         <v>148</v>
@@ -12238,7 +12238,7 @@
         <v>233</v>
       </c>
       <c r="AO62" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AQ62" s="11" t="s">
         <v>164</v>
@@ -12250,7 +12250,7 @@
         <v>176</v>
       </c>
       <c r="AU62" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV62" s="11" t="s">
         <v>199</v>
@@ -12259,10 +12259,10 @@
         <v>208</v>
       </c>
       <c r="AX62" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>477</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>80</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA63" s="11">
         <v>2</v>
@@ -12345,7 +12345,7 @@
         <v>3</v>
       </c>
       <c r="AD63" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF63" s="13" t="s">
         <v>487</v>
@@ -12357,7 +12357,7 @@
         <v>120</v>
       </c>
       <c r="AI63" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK63" s="11" t="s">
         <v>148</v>
@@ -12366,7 +12366,7 @@
         <v>233</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12375,22 +12375,22 @@
         <v>421</v>
       </c>
       <c r="AS63" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU63" s="11" t="s">
         <v>599</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW63" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>477</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>80</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA64" s="11">
         <v>2</v>
@@ -12473,7 +12473,7 @@
         <v>3</v>
       </c>
       <c r="AD64" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF64" s="13" t="s">
         <v>487</v>
@@ -12485,7 +12485,7 @@
         <v>120</v>
       </c>
       <c r="AI64" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK64" s="11" t="s">
         <v>148</v>
@@ -12494,7 +12494,7 @@
         <v>233</v>
       </c>
       <c r="AO64" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AQ64" s="11" t="s">
         <v>164</v>
@@ -12506,7 +12506,7 @@
         <v>175</v>
       </c>
       <c r="AU64" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AV64" s="11" t="s">
         <v>113</v>
@@ -12515,10 +12515,10 @@
         <v>207</v>
       </c>
       <c r="AX64" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>477</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>80</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA65" s="11">
         <v>2</v>
@@ -12601,7 +12601,7 @@
         <v>3</v>
       </c>
       <c r="AD65" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF65" s="13" t="s">
         <v>487</v>
@@ -12613,7 +12613,7 @@
         <v>120</v>
       </c>
       <c r="AI65" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK65" s="11" t="s">
         <v>148</v>
@@ -12622,7 +12622,7 @@
         <v>233</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AQ65" s="11" t="s">
         <v>164</v>
@@ -12631,10 +12631,10 @@
         <v>421</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU65" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>113</v>
@@ -12643,10 +12643,10 @@
         <v>207</v>
       </c>
       <c r="AX65" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>477</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>80</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA66" s="11">
         <v>2</v>
@@ -12729,7 +12729,7 @@
         <v>3</v>
       </c>
       <c r="AD66" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF66" s="13" t="s">
         <v>487</v>
@@ -12741,7 +12741,7 @@
         <v>120</v>
       </c>
       <c r="AI66" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK66" s="11" t="s">
         <v>148</v>
@@ -12750,7 +12750,7 @@
         <v>233</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AQ66" s="11" t="s">
         <v>164</v>
@@ -12762,7 +12762,7 @@
         <v>176</v>
       </c>
       <c r="AU66" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AV66" s="11" t="s">
         <v>113</v>
@@ -12771,48 +12771,48 @@
         <v>207</v>
       </c>
       <c r="AX66" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E67" s="13">
         <v>2013</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>248</v>
@@ -12827,58 +12827,52 @@
         <v>21</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V67" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W67" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>641</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="AA67" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB67" s="11">
         <v>2</v>
       </c>
-      <c r="AB67" s="11">
-        <v>3</v>
-      </c>
       <c r="AC67" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD67" s="10" t="s">
-        <v>598</v>
+        <v>2</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI67" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK67" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM67" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN67" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12887,22 +12881,25 @@
         <v>421</v>
       </c>
       <c r="AS67" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT67" s="11" t="s">
+        <v>644</v>
       </c>
       <c r="AU67" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AV67" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW67" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>601</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>488</v>
       </c>
@@ -12970,10 +12967,10 @@
         <v>216</v>
       </c>
       <c r="Y68" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Z68" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AA68" s="11">
         <v>3</v>
@@ -12997,10 +12994,10 @@
         <v>232</v>
       </c>
       <c r="AN68" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO68" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>164</v>
@@ -13012,10 +13009,10 @@
         <v>175</v>
       </c>
       <c r="AT68" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AU68" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV68" s="11" t="s">
         <v>199</v>
@@ -13024,10 +13021,10 @@
         <v>208</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>488</v>
       </c>
@@ -13095,10 +13092,10 @@
         <v>216</v>
       </c>
       <c r="Y69" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AA69" s="11">
         <v>3</v>
@@ -13122,10 +13119,10 @@
         <v>232</v>
       </c>
       <c r="AN69" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>164</v>
@@ -13137,22 +13134,22 @@
         <v>175</v>
       </c>
       <c r="AT69" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="AV69" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW69" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>488</v>
       </c>
@@ -13220,10 +13217,10 @@
         <v>216</v>
       </c>
       <c r="Y70" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Z70" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AA70" s="11">
         <v>3</v>
@@ -13247,10 +13244,10 @@
         <v>232</v>
       </c>
       <c r="AN70" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO70" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ70" s="11" t="s">
         <v>164</v>
@@ -13262,10 +13259,10 @@
         <v>175</v>
       </c>
       <c r="AT70" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AU70" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AV70" s="11" t="s">
         <v>203</v>
@@ -13274,57 +13271,57 @@
         <v>208</v>
       </c>
       <c r="AX70" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E71" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q71" s="13" t="s">
         <v>21</v>
@@ -13333,49 +13330,58 @@
         <v>31</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V71" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X71" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>643</v>
-      </c>
       <c r="Z71" s="11" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="AA71" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB71" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="11">
         <v>2</v>
       </c>
+      <c r="AD71" s="10" t="s">
+        <v>606</v>
+      </c>
       <c r="AF71" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG71" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH71" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL71" s="11" t="s">
+        <v>603</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN71" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13383,14 +13389,11 @@
       <c r="AR71" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS71" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT71" s="11" t="s">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="AU71" s="11" t="s">
-        <v>647</v>
+        <v>604</v>
       </c>
       <c r="AV71" s="11" t="s">
         <v>203</v>
@@ -13399,10 +13402,10 @@
         <v>208</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>495</v>
       </c>
@@ -13470,10 +13473,10 @@
         <v>51</v>
       </c>
       <c r="X72" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA72" s="11">
         <v>1</v>
@@ -13485,7 +13488,7 @@
         <v>2</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF72" s="13" t="s">
         <v>265</v>
@@ -13500,7 +13503,7 @@
         <v>144</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>232</v>
@@ -13509,7 +13512,7 @@
         <v>160</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>164</v>
@@ -13518,10 +13521,10 @@
         <v>421</v>
       </c>
       <c r="AT72" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU72" s="11" t="s">
         <v>604</v>
-      </c>
-      <c r="AU72" s="11" t="s">
-        <v>605</v>
       </c>
       <c r="AV72" s="11" t="s">
         <v>203</v>
@@ -13530,10 +13533,10 @@
         <v>208</v>
       </c>
       <c r="AX72" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>495</v>
       </c>
@@ -13601,10 +13604,10 @@
         <v>51</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA73" s="11">
         <v>1</v>
@@ -13616,7 +13619,7 @@
         <v>2</v>
       </c>
       <c r="AD73" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF73" s="13" t="s">
         <v>265</v>
@@ -13631,7 +13634,7 @@
         <v>144</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM73" s="11" t="s">
         <v>232</v>
@@ -13640,7 +13643,7 @@
         <v>160</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>164</v>
@@ -13649,7 +13652,7 @@
         <v>421</v>
       </c>
       <c r="AT73" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU73" s="11" t="s">
         <v>605</v>
@@ -13658,13 +13661,13 @@
         <v>203</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>495</v>
       </c>
@@ -13732,10 +13735,10 @@
         <v>51</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA74" s="11">
         <v>1</v>
@@ -13747,7 +13750,7 @@
         <v>2</v>
       </c>
       <c r="AD74" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF74" s="13" t="s">
         <v>265</v>
@@ -13762,7 +13765,7 @@
         <v>144</v>
       </c>
       <c r="AL74" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM74" s="11" t="s">
         <v>232</v>
@@ -13771,7 +13774,7 @@
         <v>160</v>
       </c>
       <c r="AO74" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AQ74" s="11" t="s">
         <v>164</v>
@@ -13780,10 +13783,10 @@
         <v>421</v>
       </c>
       <c r="AT74" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU74" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV74" s="11" t="s">
         <v>203</v>
@@ -13792,117 +13795,117 @@
         <v>210</v>
       </c>
       <c r="AX74" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E75" s="13">
         <v>2012</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O75" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="Q75" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W75" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AA75" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB75" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC75" s="11">
         <v>1</v>
       </c>
-      <c r="AB75" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD75" s="10" t="s">
-        <v>607</v>
-      </c>
       <c r="AF75" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG75" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI75" s="11" t="s">
-        <v>144</v>
+      <c r="AK75" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL75" s="11" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="AM75" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN75" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>164</v>
@@ -13910,23 +13913,23 @@
       <c r="AR75" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>604</v>
+      <c r="AS75" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU75" s="11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="AV75" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW75" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX75" s="11" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>505</v>
       </c>
@@ -13997,7 +14000,7 @@
         <v>215</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA76" s="11">
         <v>2</v>
@@ -14027,13 +14030,13 @@
         <v>148</v>
       </c>
       <c r="AL76" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM76" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO76" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ76" s="11" t="s">
         <v>164</v>
@@ -14048,54 +14051,54 @@
         <v>611</v>
       </c>
       <c r="AV76" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW76" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX76" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E77" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>248</v>
@@ -14104,19 +14107,19 @@
         <v>249</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T77" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V77" s="11" t="s">
         <v>41</v>
@@ -14125,46 +14128,46 @@
         <v>55</v>
       </c>
       <c r="X77" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AA77" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB77" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC77" s="11">
         <v>1</v>
       </c>
       <c r="AF77" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG77" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH77" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI77" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ77" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK77" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL77" s="11" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="AM77" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN77" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO77" s="11" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>164</v>
@@ -14175,20 +14178,23 @@
       <c r="AS77" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT77" s="11" t="s">
+        <v>613</v>
+      </c>
       <c r="AU77" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AV77" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW77" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX77" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>514</v>
       </c>
@@ -14259,7 +14265,7 @@
         <v>69</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA78" s="11">
         <v>3</v>
@@ -14295,7 +14301,7 @@
         <v>161</v>
       </c>
       <c r="AO78" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AQ78" s="11" t="s">
         <v>164</v>
@@ -14307,60 +14313,60 @@
         <v>175</v>
       </c>
       <c r="AT78" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="AU78" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="AU78" s="11" t="s">
-        <v>615</v>
       </c>
       <c r="AV78" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW78" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX78" s="11" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E79" s="13">
         <v>2011</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>363</v>
+        <v>525</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L79" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>248</v>
@@ -14375,34 +14381,37 @@
         <v>21</v>
       </c>
       <c r="S79" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T79" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V79" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W79" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X79" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y79" s="12" t="s">
+        <v>618</v>
+      </c>
       <c r="Z79" s="11" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="AA79" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB79" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC79" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF79" s="13" t="s">
         <v>307</v>
@@ -14411,25 +14420,28 @@
         <v>109</v>
       </c>
       <c r="AH79" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI79" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ79" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK79" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL79" s="11" t="s">
-        <v>617</v>
+      <c r="AL79" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="AM79" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN79" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO79" s="11" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="AQ79" s="11" t="s">
         <v>164</v>
@@ -14437,26 +14449,20 @@
       <c r="AR79" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS79" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT79" s="11" t="s">
-        <v>614</v>
-      </c>
       <c r="AU79" s="11" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AV79" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW79" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX79" s="11" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>522</v>
       </c>
@@ -14527,10 +14533,10 @@
         <v>69</v>
       </c>
       <c r="Y80" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z80" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="Z80" s="11" t="s">
-        <v>620</v>
       </c>
       <c r="AA80" s="11">
         <v>2</v>
@@ -14560,7 +14566,7 @@
         <v>150</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM80" s="11" t="s">
         <v>232</v>
@@ -14569,7 +14575,7 @@
         <v>160</v>
       </c>
       <c r="AO80" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AQ80" s="11" t="s">
         <v>164</v>
@@ -14578,150 +14584,16 @@
         <v>421</v>
       </c>
       <c r="AU80" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AV80" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW80" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX80" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="81" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E81" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M81" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N81" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O81" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q81" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S81" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V81" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="Z81" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC81" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF81" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG81" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH81" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI81" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ81" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK81" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL81" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM81" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN81" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO81" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AQ81" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR81" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU81" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="AV81" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW81" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX81" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -14742,7 +14614,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO82:AO1048576 AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576 AO81:AO1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14756,7 +14628,19 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R56:R1048576 R3:R51 AF3:AF81</xm:sqref>
+          <xm:sqref>R55:R1048576 AF3:AF80 R3:R50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG3:AG24 AG25:AG47 AG49:AG1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D836B117-5631-4F99-9AA2-A5DA252E03A0}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -14812,12 +14696,6 @@
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
-          <x14:formula1>
-            <xm:f>Validation!$AG$3:$AG$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG3:AG24 AG26:AG48 AG50:AG1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
@@ -14842,12 +14720,6 @@
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D836B117-5631-4F99-9AA2-A5DA252E03A0}">
-          <x14:formula1>
-            <xm:f>Validation!$AG$3:$AG$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG25 AG49</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -14858,21 +14730,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7265625" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -14937,7 +14809,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -15086,7 +14958,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15143,7 +15015,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15200,7 +15072,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -15256,7 +15128,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -15301,7 +15173,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -15343,7 +15215,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -15381,7 +15253,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -15416,7 +15288,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -15436,7 +15308,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AH10" t="s">
         <v>119</v>
@@ -15451,7 +15323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -15486,7 +15358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -15518,7 +15390,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -15553,7 +15425,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -15582,7 +15454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -15611,7 +15483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -15631,7 +15503,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -15639,22 +15511,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -15689,7 +15561,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -15715,7 +15587,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -15738,7 +15610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -15749,7 +15621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -15760,7 +15632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -15768,12 +15640,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -15796,7 +15668,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -15822,7 +15694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -15848,7 +15720,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -15868,7 +15740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -15883,7 +15755,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -15897,7 +15769,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -15905,10 +15777,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -15936,38 +15808,38 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.7265625" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1"/>
-    <col min="22" max="22" width="18.7265625" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" customWidth="1"/>
-    <col min="29" max="29" width="15.26953125" customWidth="1"/>
-    <col min="30" max="30" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7265625" customWidth="1"/>
-    <col min="32" max="32" width="12.54296875" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -16013,7 +15885,7 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
     </row>
-    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -16111,7 +15983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16177,7 +16049,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16228,7 +16100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16282,7 +16154,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -16324,7 +16196,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -16369,7 +16241,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16407,7 +16279,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -16445,7 +16317,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -16480,7 +16352,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -16512,7 +16384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -16544,7 +16416,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -16573,7 +16445,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -16596,7 +16468,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -16622,7 +16494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -16639,7 +16511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -16650,7 +16522,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -16664,7 +16536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -16678,7 +16550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -16689,7 +16561,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -16703,7 +16575,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -16714,7 +16586,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -16725,7 +16597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -16733,7 +16605,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -16741,7 +16613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -16749,7 +16621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -16763,7 +16635,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -16774,7 +16646,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -16785,7 +16657,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -16796,7 +16668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -16804,7 +16676,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -16812,12 +16684,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -16846,14 +16718,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -16965,6 +16831,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -16974,22 +16846,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C522E-A599-4758-AEB6-0A8568542324}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -17002,4 +16859,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4275B5A7-4B1C-4DDD-8FDF-3B8DA040CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1F2BB3-21E5-48E1-8D4E-622025CF2887}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58B0B1-E0EB-4665-9E7F-F0AF67846790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$78</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="662">
   <si>
     <t>SearchID</t>
   </si>
@@ -4130,9 +4130,6 @@
     <t>biomass</t>
   </si>
   <si>
-    <t>nutrient fluxes</t>
-  </si>
-  <si>
     <t>rather substantial</t>
   </si>
   <si>
@@ -4274,9 +4271,6 @@
     <t>Caution has to be expressed in that we consider our results from the dynamic simulations to be optimistic</t>
   </si>
   <si>
-    <t>nutrient flux</t>
-  </si>
-  <si>
     <t>catch _ effort</t>
   </si>
   <si>
@@ -4320,6 +4314,9 @@
   </si>
   <si>
     <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>benthic-pelagic nutrient fluxes</t>
   </si>
 </sst>
 </file>
@@ -4785,33 +4782,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX80"/>
+  <dimension ref="A1:AX78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ84" sqref="AQ84"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM61" sqref="AM61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
-    <col min="48" max="48" width="27.140625" customWidth="1"/>
-    <col min="50" max="50" width="22.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="28" max="28" width="16.26953125" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="48" max="48" width="27.1796875" customWidth="1"/>
+    <col min="50" max="50" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +4874,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4999,7 +4996,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5029,7 +5026,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>239</v>
       </c>
@@ -5130,13 +5127,13 @@
         <v>146</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -5163,7 +5160,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>239</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>233</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -5297,7 +5294,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>239</v>
       </c>
@@ -5404,7 +5401,7 @@
         <v>233</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -5431,7 +5428,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>239</v>
       </c>
@@ -5532,13 +5529,13 @@
         <v>134</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
@@ -5565,7 +5562,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>239</v>
       </c>
@@ -5666,13 +5663,13 @@
         <v>141</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
@@ -5699,7 +5696,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>239</v>
       </c>
@@ -5800,13 +5797,13 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5833,7 +5830,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>239</v>
       </c>
@@ -5940,7 +5937,7 @@
         <v>233</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5967,7 +5964,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>239</v>
       </c>
@@ -6074,7 +6071,7 @@
         <v>233</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -6101,7 +6098,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>239</v>
       </c>
@@ -6202,13 +6199,13 @@
         <v>134</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -6235,7 +6232,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>239</v>
       </c>
@@ -6336,13 +6333,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -6369,7 +6366,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>258</v>
       </c>
@@ -6529,7 +6526,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6553,7 +6550,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>258</v>
       </c>
@@ -6663,7 +6660,7 @@
         <v>161</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AP15" s="11" t="s">
         <v>417</v>
@@ -6690,7 +6687,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>258</v>
       </c>
@@ -6797,7 +6794,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6818,7 +6815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>403</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>159</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -6946,7 +6943,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>403</v>
       </c>
@@ -7050,7 +7047,7 @@
         <v>159</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -7074,7 +7071,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>403</v>
       </c>
@@ -7178,7 +7175,7 @@
         <v>159</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -7202,7 +7199,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>411</v>
       </c>
@@ -7306,7 +7303,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -7333,7 +7330,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>411</v>
       </c>
@@ -7437,7 +7434,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7461,7 +7458,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>411</v>
       </c>
@@ -7565,7 +7562,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7589,7 +7586,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
@@ -7645,7 +7642,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>278</v>
       </c>
@@ -7746,7 +7743,7 @@
         <v>155</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>232</v>
@@ -7755,7 +7752,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
@@ -7770,10 +7767,10 @@
         <v>207</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>278</v>
       </c>
@@ -7871,7 +7868,7 @@
         <v>155</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>232</v>
@@ -7880,7 +7877,7 @@
         <v>162</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7904,7 +7901,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>278</v>
       </c>
@@ -8002,7 +7999,7 @@
         <v>155</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -8011,7 +8008,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
@@ -8038,7 +8035,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>278</v>
       </c>
@@ -8136,7 +8133,7 @@
         <v>155</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -8145,7 +8142,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
@@ -8172,7 +8169,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>289</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>233</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
@@ -8294,7 +8291,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>289</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>233</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
@@ -8416,7 +8413,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>299</v>
       </c>
@@ -8517,10 +8514,10 @@
         <v>162</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>165</v>
@@ -8544,10 +8541,10 @@
         <v>209</v>
       </c>
       <c r="AX30" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>308</v>
       </c>
@@ -8606,7 +8603,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>317</v>
       </c>
@@ -8665,7 +8662,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>327</v>
       </c>
@@ -8724,7 +8721,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>336</v>
       </c>
@@ -8784,7 +8781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>346</v>
       </c>
@@ -8891,7 +8888,7 @@
         <v>160</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ35" s="11" t="s">
         <v>165</v>
@@ -8915,7 +8912,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>346</v>
       </c>
@@ -9022,7 +9019,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>165</v>
@@ -9046,7 +9043,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>346</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>160</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>165</v>
@@ -9177,7 +9174,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>346</v>
       </c>
@@ -9275,7 +9272,7 @@
         <v>138</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>232</v>
@@ -9284,7 +9281,7 @@
         <v>160</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>165</v>
@@ -9308,7 +9305,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>346</v>
       </c>
@@ -9406,7 +9403,7 @@
         <v>138</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AM39" s="11" t="s">
         <v>232</v>
@@ -9415,7 +9412,7 @@
         <v>162</v>
       </c>
       <c r="AO39" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>165</v>
@@ -9439,7 +9436,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>346</v>
       </c>
@@ -9534,7 +9531,7 @@
         <v>118</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>232</v>
@@ -9543,7 +9540,7 @@
         <v>160</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ40" s="11" t="s">
         <v>165</v>
@@ -9564,7 +9561,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>346</v>
       </c>
@@ -9671,7 +9668,7 @@
         <v>160</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ41" s="11" t="s">
         <v>165</v>
@@ -9695,7 +9692,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>354</v>
       </c>
@@ -9754,7 +9751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>360</v>
       </c>
@@ -9858,7 +9855,7 @@
         <v>160</v>
       </c>
       <c r="AO43" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AQ43" s="11" t="s">
         <v>164</v>
@@ -9885,7 +9882,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>369</v>
       </c>
@@ -9992,7 +9989,7 @@
         <v>233</v>
       </c>
       <c r="AO44" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ44" s="11" t="s">
         <v>164</v>
@@ -10019,7 +10016,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>369</v>
       </c>
@@ -10126,7 +10123,7 @@
         <v>233</v>
       </c>
       <c r="AO45" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>164</v>
@@ -10153,7 +10150,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>376</v>
       </c>
@@ -10224,7 +10221,7 @@
         <v>216</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA46" s="11">
         <v>2</v>
@@ -10257,7 +10254,7 @@
         <v>233</v>
       </c>
       <c r="AO46" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>164</v>
@@ -10269,7 +10266,7 @@
         <v>176</v>
       </c>
       <c r="AU46" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AV46" s="11" t="s">
         <v>199</v>
@@ -10278,10 +10275,10 @@
         <v>208</v>
       </c>
       <c r="AX46" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>383</v>
       </c>
@@ -10388,7 +10385,7 @@
         <v>159</v>
       </c>
       <c r="AO47" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AP47" s="11" t="s">
         <v>572</v>
@@ -10418,7 +10415,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>383</v>
       </c>
@@ -10510,7 +10507,7 @@
         <v>268</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AH48" s="11" t="s">
         <v>115</v>
@@ -10528,7 +10525,7 @@
         <v>159</v>
       </c>
       <c r="AO48" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AP48" s="11" t="s">
         <v>572</v>
@@ -10558,7 +10555,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>383</v>
       </c>
@@ -10665,7 +10662,7 @@
         <v>159</v>
       </c>
       <c r="AO49" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AP49" s="11" t="s">
         <v>572</v>
@@ -10695,7 +10692,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>391</v>
       </c>
@@ -10802,7 +10799,7 @@
         <v>162</v>
       </c>
       <c r="AO50" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
@@ -10829,7 +10826,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>444</v>
       </c>
@@ -10936,7 +10933,7 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
@@ -10963,7 +10960,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>444</v>
       </c>
@@ -11070,7 +11067,7 @@
         <v>162</v>
       </c>
       <c r="AO52" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ52" s="11" t="s">
         <v>164</v>
@@ -11097,7 +11094,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>444</v>
       </c>
@@ -11204,7 +11201,7 @@
         <v>162</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ53" s="11" t="s">
         <v>164</v>
@@ -11231,7 +11228,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>444</v>
       </c>
@@ -11338,7 +11335,7 @@
         <v>162</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ54" s="11" t="s">
         <v>164</v>
@@ -11365,7 +11362,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>451</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>461</v>
       </c>
@@ -11535,7 +11532,7 @@
         <v>162</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ56" s="11" t="s">
         <v>164</v>
@@ -11556,7 +11553,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>461</v>
       </c>
@@ -11666,7 +11663,7 @@
         <v>162</v>
       </c>
       <c r="AO57" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>164</v>
@@ -11690,7 +11687,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>468</v>
       </c>
@@ -11750,7 +11747,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>477</v>
       </c>
@@ -11854,7 +11851,7 @@
         <v>233</v>
       </c>
       <c r="AO59" s="11" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="AQ59" s="11" t="s">
         <v>164</v>
@@ -11875,10 +11872,10 @@
         <v>208</v>
       </c>
       <c r="AX59" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>477</v>
       </c>
@@ -11982,7 +11979,7 @@
         <v>233</v>
       </c>
       <c r="AO60" s="11" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="AQ60" s="11" t="s">
         <v>164</v>
@@ -12003,10 +12000,10 @@
         <v>208</v>
       </c>
       <c r="AX60" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>477</v>
       </c>
@@ -12110,7 +12107,7 @@
         <v>233</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="AQ61" s="11" t="s">
         <v>164</v>
@@ -12131,10 +12128,10 @@
         <v>208</v>
       </c>
       <c r="AX61" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>477</v>
       </c>
@@ -12238,7 +12235,7 @@
         <v>233</v>
       </c>
       <c r="AO62" s="11" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="AQ62" s="11" t="s">
         <v>164</v>
@@ -12259,10 +12256,10 @@
         <v>208</v>
       </c>
       <c r="AX62" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>477</v>
       </c>
@@ -12354,19 +12351,16 @@
         <v>111</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI63" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK63" s="11" t="s">
         <v>148</v>
       </c>
       <c r="AM63" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12378,7 +12372,7 @@
         <v>175</v>
       </c>
       <c r="AU63" s="11" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="AV63" s="11" t="s">
         <v>113</v>
@@ -12387,10 +12381,10 @@
         <v>207</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>477</v>
       </c>
@@ -12482,19 +12476,16 @@
         <v>111</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI64" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK64" s="11" t="s">
         <v>148</v>
       </c>
       <c r="AM64" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO64" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AQ64" s="11" t="s">
         <v>164</v>
@@ -12503,10 +12494,10 @@
         <v>421</v>
       </c>
       <c r="AS64" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU64" s="11" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="AV64" s="11" t="s">
         <v>113</v>
@@ -12515,48 +12506,48 @@
         <v>207</v>
       </c>
       <c r="AX64" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E65" s="13">
         <v>2013</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>248</v>
@@ -12571,58 +12562,52 @@
         <v>21</v>
       </c>
       <c r="S65" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V65" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W65" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X65" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="AA65" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB65" s="11">
         <v>2</v>
       </c>
-      <c r="AB65" s="11">
-        <v>3</v>
-      </c>
       <c r="AC65" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD65" s="10" t="s">
-        <v>597</v>
+        <v>2</v>
       </c>
       <c r="AF65" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG65" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI65" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK65" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM65" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN65" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AQ65" s="11" t="s">
         <v>164</v>
@@ -12631,60 +12616,63 @@
         <v>421</v>
       </c>
       <c r="AS65" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT65" s="11" t="s">
+        <v>643</v>
       </c>
       <c r="AU65" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV65" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW65" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX65" s="11" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="E66" s="13">
         <v>2013</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="N66" s="13" t="s">
         <v>248</v>
@@ -12699,58 +12687,52 @@
         <v>21</v>
       </c>
       <c r="S66" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U66" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V66" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W66" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X66" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y66" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="AA66" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="11">
         <v>2</v>
       </c>
-      <c r="AB66" s="11">
-        <v>3</v>
-      </c>
       <c r="AC66" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="10" t="s">
-        <v>597</v>
+        <v>2</v>
       </c>
       <c r="AF66" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG66" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI66" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK66" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM66" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN66" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AQ66" s="11" t="s">
         <v>164</v>
@@ -12759,22 +12741,25 @@
         <v>421</v>
       </c>
       <c r="AS66" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT66" s="11" t="s">
+        <v>643</v>
       </c>
       <c r="AU66" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AV66" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW66" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX66" s="11" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>488</v>
       </c>
@@ -12842,10 +12827,10 @@
         <v>216</v>
       </c>
       <c r="Y67" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z67" s="11" t="s">
         <v>641</v>
-      </c>
-      <c r="Z67" s="11" t="s">
-        <v>642</v>
       </c>
       <c r="AA67" s="11">
         <v>3</v>
@@ -12872,7 +12857,7 @@
         <v>160</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12884,22 +12869,22 @@
         <v>175</v>
       </c>
       <c r="AT67" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="AU67" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="AU67" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="AV67" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW67" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>488</v>
       </c>
@@ -12967,10 +12952,10 @@
         <v>216</v>
       </c>
       <c r="Y68" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z68" s="11" t="s">
         <v>641</v>
-      </c>
-      <c r="Z68" s="11" t="s">
-        <v>642</v>
       </c>
       <c r="AA68" s="11">
         <v>3</v>
@@ -12997,7 +12982,7 @@
         <v>162</v>
       </c>
       <c r="AO68" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>164</v>
@@ -13009,69 +12994,69 @@
         <v>175</v>
       </c>
       <c r="AT68" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="AU68" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="AU68" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="AV68" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW68" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E69" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="O69" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q69" s="13" t="s">
         <v>21</v>
@@ -13080,40 +13065,49 @@
         <v>31</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U69" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V69" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W69" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X69" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>641</v>
-      </c>
       <c r="Z69" s="11" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
       <c r="AA69" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="11">
         <v>2</v>
       </c>
+      <c r="AD69" s="10" t="s">
+        <v>605</v>
+      </c>
       <c r="AF69" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG69" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI69" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL69" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="AM69" s="11" t="s">
         <v>232</v>
@@ -13122,7 +13116,7 @@
         <v>160</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>164</v>
@@ -13130,14 +13124,11 @@
       <c r="AR69" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS69" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT69" s="11" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="AV69" s="11" t="s">
         <v>203</v>
@@ -13146,57 +13137,57 @@
         <v>208</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E70" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="O70" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q70" s="13" t="s">
         <v>21</v>
@@ -13205,49 +13196,58 @@
         <v>31</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V70" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W70" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X70" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>641</v>
+        <v>75</v>
       </c>
       <c r="Z70" s="11" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
       <c r="AA70" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="11">
         <v>2</v>
       </c>
+      <c r="AD70" s="10" t="s">
+        <v>605</v>
+      </c>
       <c r="AF70" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG70" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI70" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL70" s="11" t="s">
+        <v>602</v>
       </c>
       <c r="AM70" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN70" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO70" s="11" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AQ70" s="11" t="s">
         <v>164</v>
@@ -13255,14 +13255,11 @@
       <c r="AR70" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS70" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT70" s="11" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="AU70" s="11" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="AV70" s="11" t="s">
         <v>203</v>
@@ -13271,10 +13268,10 @@
         <v>208</v>
       </c>
       <c r="AX70" s="11" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>495</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>216</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA71" s="11">
         <v>1</v>
@@ -13357,7 +13354,7 @@
         <v>2</v>
       </c>
       <c r="AD71" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF71" s="13" t="s">
         <v>265</v>
@@ -13372,7 +13369,7 @@
         <v>144</v>
       </c>
       <c r="AL71" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM71" s="11" t="s">
         <v>232</v>
@@ -13381,7 +13378,7 @@
         <v>160</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13390,7 +13387,7 @@
         <v>421</v>
       </c>
       <c r="AT71" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>604</v>
@@ -13399,13 +13396,13 @@
         <v>203</v>
       </c>
       <c r="AW71" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>495</v>
       </c>
@@ -13476,7 +13473,7 @@
         <v>75</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA72" s="11">
         <v>1</v>
@@ -13488,7 +13485,7 @@
         <v>2</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF72" s="13" t="s">
         <v>265</v>
@@ -13503,7 +13500,7 @@
         <v>144</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>232</v>
@@ -13512,7 +13509,7 @@
         <v>160</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>164</v>
@@ -13521,7 +13518,7 @@
         <v>421</v>
       </c>
       <c r="AT72" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU72" s="11" t="s">
         <v>604</v>
@@ -13530,120 +13527,120 @@
         <v>203</v>
       </c>
       <c r="AW72" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX72" s="11" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E73" s="13">
         <v>2012</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O73" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P73" s="13" t="s">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="Q73" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T73" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V73" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W73" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AA73" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB73" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="11">
         <v>1</v>
       </c>
-      <c r="AB73" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD73" s="10" t="s">
-        <v>606</v>
-      </c>
       <c r="AF73" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH73" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI73" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ73" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI73" s="11" t="s">
-        <v>144</v>
+      <c r="AK73" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AM73" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN73" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>164</v>
@@ -13651,130 +13648,130 @@
       <c r="AR73" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT73" s="11" t="s">
-        <v>603</v>
+      <c r="AS73" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU73" s="11" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AV73" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E74" s="13">
         <v>2012</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O74" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T74" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U74" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V74" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W74" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AA74" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB74" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC74" s="11">
         <v>1</v>
       </c>
-      <c r="AB74" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD74" s="10" t="s">
-        <v>606</v>
-      </c>
       <c r="AF74" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG74" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH74" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI74" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ74" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI74" s="11" t="s">
-        <v>144</v>
+      <c r="AK74" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL74" s="11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AM74" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN74" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO74" s="11" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AQ74" s="11" t="s">
         <v>164</v>
@@ -13782,61 +13779,61 @@
       <c r="AR74" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT74" s="11" t="s">
-        <v>603</v>
+      <c r="AS74" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU74" s="11" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AV74" s="11" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AW74" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX74" s="11" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E75" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>248</v>
@@ -13845,19 +13842,19 @@
         <v>249</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q75" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V75" s="11" t="s">
         <v>41</v>
@@ -13866,46 +13863,46 @@
         <v>55</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AA75" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB75" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC75" s="11">
         <v>1</v>
       </c>
       <c r="AF75" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG75" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ75" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK75" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL75" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="AM75" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN75" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>164</v>
@@ -13916,8 +13913,11 @@
       <c r="AS75" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT75" s="11" t="s">
+        <v>612</v>
+      </c>
       <c r="AU75" s="11" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AV75" s="11" t="s">
         <v>199</v>
@@ -13929,45 +13929,45 @@
         <v>580</v>
       </c>
     </row>
-    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E76" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="L76" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N76" s="13" t="s">
         <v>248</v>
@@ -13976,19 +13976,19 @@
         <v>249</v>
       </c>
       <c r="P76" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q76" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S76" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T76" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U76" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V76" s="11" t="s">
         <v>41</v>
@@ -13997,46 +13997,46 @@
         <v>55</v>
       </c>
       <c r="X76" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AA76" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB76" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC76" s="11">
         <v>1</v>
       </c>
       <c r="AF76" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG76" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH76" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI76" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ76" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK76" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL76" s="11" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="AM76" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN76" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO76" s="11" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AQ76" s="11" t="s">
         <v>164</v>
@@ -14047,58 +14047,61 @@
       <c r="AS76" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT76" s="11" t="s">
+        <v>612</v>
+      </c>
       <c r="AU76" s="11" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AV76" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW76" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX76" s="11" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E77" s="13">
         <v>2011</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>363</v>
+        <v>525</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L77" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>248</v>
@@ -14113,34 +14116,37 @@
         <v>21</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T77" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V77" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W77" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X77" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y77" s="12" t="s">
+        <v>617</v>
+      </c>
       <c r="Z77" s="11" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AA77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB77" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC77" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF77" s="13" t="s">
         <v>307</v>
@@ -14149,25 +14155,28 @@
         <v>109</v>
       </c>
       <c r="AH77" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI77" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ77" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK77" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL77" s="11" t="s">
-        <v>615</v>
+      <c r="AL77" s="10" t="s">
+        <v>622</v>
       </c>
       <c r="AM77" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN77" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO77" s="11" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="AQ77" s="11" t="s">
         <v>164</v>
@@ -14175,64 +14184,58 @@
       <c r="AR77" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS77" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT77" s="11" t="s">
-        <v>613</v>
-      </c>
       <c r="AU77" s="11" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW77" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX77" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E78" s="13">
         <v>2011</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>363</v>
+        <v>525</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="N78" s="13" t="s">
         <v>248</v>
@@ -14247,34 +14250,37 @@
         <v>21</v>
       </c>
       <c r="S78" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T78" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U78" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V78" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W78" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X78" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y78" s="12" t="s">
+        <v>617</v>
+      </c>
       <c r="Z78" s="11" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AA78" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB78" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC78" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF78" s="13" t="s">
         <v>307</v>
@@ -14283,25 +14289,28 @@
         <v>109</v>
       </c>
       <c r="AH78" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI78" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ78" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK78" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL78" s="11" t="s">
-        <v>616</v>
+      <c r="AL78" s="10" t="s">
+        <v>621</v>
       </c>
       <c r="AM78" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN78" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO78" s="11" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="AQ78" s="11" t="s">
         <v>164</v>
@@ -14309,14 +14318,8 @@
       <c r="AR78" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS78" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT78" s="11" t="s">
-        <v>613</v>
-      </c>
       <c r="AU78" s="11" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AV78" s="11" t="s">
         <v>199</v>
@@ -14325,275 +14328,7 @@
         <v>210</v>
       </c>
       <c r="AX78" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E79" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L79" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M79" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O79" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P79" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q79" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S79" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V79" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W79" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y79" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z79" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA79" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB79" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC79" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF79" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG79" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH79" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI79" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ79" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK79" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL79" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM79" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN79" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO79" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="AQ79" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR79" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AV79" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW79" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX79" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E80" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M80" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N80" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O80" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P80" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q80" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S80" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V80" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W80" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y80" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z80" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA80" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB80" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC80" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF80" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG80" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH80" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI80" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ80" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK80" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL80" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM80" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN80" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO80" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="AQ80" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR80" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU80" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AV80" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW80" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX80" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -14614,7 +14349,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576 AO81:AO1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AO79:AO1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14628,13 +14363,13 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R55:R1048576 AF3:AF80 R3:R50</xm:sqref>
+          <xm:sqref>R3:R50 R55:R1048576 AF3:AF78</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG24 AG25:AG47 AG49:AG1048576</xm:sqref>
+          <xm:sqref>AG3:AG47 AG49:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D836B117-5631-4F99-9AA2-A5DA252E03A0}">
           <x14:formula1>
@@ -14734,17 +14469,17 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -14809,7 +14544,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -14958,7 +14693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -15015,7 +14750,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -15072,7 +14807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -15128,7 +14863,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -15173,7 +14908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -15215,7 +14950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -15253,7 +14988,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -15288,7 +15023,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -15308,7 +15043,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AH10" t="s">
         <v>119</v>
@@ -15323,7 +15058,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -15358,7 +15093,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -15390,7 +15125,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -15425,7 +15160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -15454,7 +15189,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -15483,7 +15218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -15503,7 +15238,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -15511,22 +15246,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -15561,7 +15296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -15587,7 +15322,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -15610,7 +15345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -15621,7 +15356,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -15632,7 +15367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -15640,12 +15375,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -15668,7 +15403,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -15694,7 +15429,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -15720,7 +15455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -15740,7 +15475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -15755,7 +15490,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -15769,7 +15504,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -15777,10 +15512,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -15808,38 +15543,38 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1"/>
-    <col min="30" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" customWidth="1"/>
+    <col min="29" max="29" width="15.26953125" customWidth="1"/>
+    <col min="30" max="30" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7265625" customWidth="1"/>
+    <col min="32" max="32" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -15885,7 +15620,7 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
     </row>
-    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -15983,7 +15718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -16049,7 +15784,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -16100,7 +15835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -16154,7 +15889,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -16196,7 +15931,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -16241,7 +15976,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16279,7 +16014,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -16317,7 +16052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -16352,7 +16087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -16384,7 +16119,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -16416,7 +16151,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -16445,7 +16180,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -16468,7 +16203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -16494,7 +16229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -16511,7 +16246,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -16522,7 +16257,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -16536,7 +16271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -16550,7 +16285,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -16561,7 +16296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -16575,7 +16310,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -16586,7 +16321,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -16597,7 +16332,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -16605,7 +16340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -16613,7 +16348,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -16621,7 +16356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -16635,7 +16370,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -16646,7 +16381,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -16657,7 +16392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -16668,7 +16403,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -16676,7 +16411,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -16684,12 +16419,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -16709,12 +16444,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16832,15 +16564,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16862,10 +16604,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Romagnoni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58B0B1-E0EB-4665-9E7F-F0AF67846790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1006DA-4668-40C3-9D72-B8346F6DF1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$75</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2328,7 +2328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="654">
   <si>
     <t>SearchID</t>
   </si>
@@ -3636,32 +3636,10 @@
     <t>interviews with fishers</t>
   </si>
   <si>
-    <t>MDS _ cluster analyisis</t>
-  </si>
-  <si>
     <t>Necropsy Protocol</t>
   </si>
   <si>
-    <t>Small pelagic fish _  anchovy _ sardine _ mackerel _horse mackerel</t>
-  </si>
-  <si>
-    <t>Striped prawn _ red mullets _ cuttlefish _ sole _ hake</t>
-  </si>
-  <si>
-    <t>Semi‐pelagic _ benthopelagic species _ hake _ red mullet _ striped red mullet _ pink shrimp _ squid</t>
-  </si>
-  <si>
     <t>likelihood that the observed human interaction contributed to the stranding event</t>
-  </si>
-  <si>
-    <t>overlap in resource utilisation</t>
-  </si>
-  <si>
-    <t>overlap between trawls, static nets, bottlenose dolphins and common dolphins was 30%.</t>
-  </si>
-  <si>
-    <t>Common dolphins’
-weak interaction with purse seine</t>
   </si>
   <si>
     <t>SW4_0710</t>
@@ -4220,9 +4198,6 @@
     <t>entanglement</t>
   </si>
   <si>
-    <t>Total estimated prey/catch consumption</t>
-  </si>
-  <si>
     <t>trawling-induced erosion rate</t>
   </si>
   <si>
@@ -4295,9 +4270,6 @@
     <t>Octopus vulgaris _ Todarodes sagittatus</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reports of stranded cetaceans and interviews with fishers revealed cases of cetacean entanglement in fishing nets, as well as frequent dolphin damage to fishing nets.</t>
-  </si>
-  <si>
     <t>sea temperature _ catch location _ duration of competition</t>
   </si>
   <si>
@@ -4317,6 +4289,10 @@
   </si>
   <si>
     <t>benthic-pelagic nutrient fluxes</t>
+  </si>
+  <si>
+    <t>Reports of stranded cetaceans and interviews with fishers revealed cases of cetacean entanglement in fishing nets, as well as frequent dolphin damage to fishing nets. In four of the six cases, the injuries were classified as certain human interaction (HI = YES) and as pre‐mortem (PRM), therefore directly related to their death. The
+other two cases, where only lesions were left by the nets but no portions of net were recorded, were classified as probable human interaction (HI = 3), and it was not possible to determine whether it was pre‐mortem or post‐mortem. In the Mediterranean Sea, overfishing practices have exerted devastating impacts on the marine ecosystem and non‐target species, leading to an impoverished marine environment. Therefore, cetacean interactions with different kinds of fisheries are increasingly common, often a necessary consequence of their struggle for survival.</t>
   </si>
 </sst>
 </file>
@@ -4782,10 +4758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX78"/>
+  <dimension ref="A1:AX75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM61" sqref="AM61"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO77" sqref="AO77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4996,7 +4972,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5097,7 +5073,7 @@
         <v>72</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA3" s="11">
         <v>2</v>
@@ -5127,13 +5103,13 @@
         <v>146</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AM3" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -5145,10 +5121,10 @@
         <v>175</v>
       </c>
       <c r="AT3" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV3" s="11" t="s">
         <v>206</v>
@@ -5157,7 +5133,7 @@
         <v>208</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5231,7 +5207,7 @@
         <v>72</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA4" s="11">
         <v>2</v>
@@ -5261,13 +5237,13 @@
         <v>134</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM4" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AQ4" s="11" t="s">
         <v>164</v>
@@ -5279,10 +5255,10 @@
         <v>175</v>
       </c>
       <c r="AT4" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AU4" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>206</v>
@@ -5291,7 +5267,7 @@
         <v>208</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5365,7 +5341,7 @@
         <v>72</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA5" s="11">
         <v>2</v>
@@ -5395,13 +5371,13 @@
         <v>146</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AM5" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AQ5" s="11" t="s">
         <v>164</v>
@@ -5413,10 +5389,10 @@
         <v>175</v>
       </c>
       <c r="AT5" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AU5" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV5" s="11" t="s">
         <v>206</v>
@@ -5425,7 +5401,7 @@
         <v>208</v>
       </c>
       <c r="AX5" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5499,7 +5475,7 @@
         <v>72</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA6" s="11">
         <v>2</v>
@@ -5529,13 +5505,13 @@
         <v>134</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AM6" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>164</v>
@@ -5547,10 +5523,10 @@
         <v>175</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AU6" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV6" s="11" t="s">
         <v>206</v>
@@ -5559,7 +5535,7 @@
         <v>208</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5633,7 +5609,7 @@
         <v>72</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA7" s="11">
         <v>2</v>
@@ -5663,13 +5639,13 @@
         <v>141</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="AM7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AQ7" s="11" t="s">
         <v>164</v>
@@ -5681,10 +5657,10 @@
         <v>175</v>
       </c>
       <c r="AT7" s="10" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AU7" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV7" s="11" t="s">
         <v>206</v>
@@ -5693,7 +5669,7 @@
         <v>208</v>
       </c>
       <c r="AX7" s="11" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5767,7 +5743,7 @@
         <v>72</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA8" s="11">
         <v>2</v>
@@ -5797,13 +5773,13 @@
         <v>146</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AQ8" s="11" t="s">
         <v>164</v>
@@ -5815,10 +5791,10 @@
         <v>192</v>
       </c>
       <c r="AT8" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU8" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV8" s="11" t="s">
         <v>206</v>
@@ -5827,7 +5803,7 @@
         <v>208</v>
       </c>
       <c r="AX8" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5901,7 +5877,7 @@
         <v>72</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA9" s="11">
         <v>2</v>
@@ -5931,13 +5907,13 @@
         <v>134</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM9" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>164</v>
@@ -5949,10 +5925,10 @@
         <v>192</v>
       </c>
       <c r="AT9" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU9" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV9" s="11" t="s">
         <v>206</v>
@@ -5961,7 +5937,7 @@
         <v>208</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6035,7 +6011,7 @@
         <v>72</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA10" s="11">
         <v>2</v>
@@ -6065,13 +6041,13 @@
         <v>146</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AM10" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AQ10" s="11" t="s">
         <v>164</v>
@@ -6083,10 +6059,10 @@
         <v>192</v>
       </c>
       <c r="AT10" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU10" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV10" s="11" t="s">
         <v>206</v>
@@ -6095,7 +6071,7 @@
         <v>208</v>
       </c>
       <c r="AX10" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6169,7 +6145,7 @@
         <v>72</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA11" s="11">
         <v>2</v>
@@ -6199,13 +6175,13 @@
         <v>134</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -6217,10 +6193,10 @@
         <v>192</v>
       </c>
       <c r="AT11" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU11" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV11" s="11" t="s">
         <v>206</v>
@@ -6229,7 +6205,7 @@
         <v>208</v>
       </c>
       <c r="AX11" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6303,7 +6279,7 @@
         <v>72</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AA12" s="11">
         <v>2</v>
@@ -6333,13 +6309,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="AM12" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO12" s="11" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AQ12" s="11" t="s">
         <v>164</v>
@@ -6351,10 +6327,10 @@
         <v>192</v>
       </c>
       <c r="AT12" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AU12" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AV12" s="11" t="s">
         <v>206</v>
@@ -6363,7 +6339,7 @@
         <v>208</v>
       </c>
       <c r="AX12" s="10" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6526,7 +6502,7 @@
         <v>160</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AQ14" s="11" t="s">
         <v>164</v>
@@ -6660,7 +6636,7 @@
         <v>161</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AP15" s="11" t="s">
         <v>417</v>
@@ -6794,7 +6770,7 @@
         <v>160</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AQ16" s="11" t="s">
         <v>164</v>
@@ -6919,7 +6895,7 @@
         <v>159</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AQ17" s="11" t="s">
         <v>164</v>
@@ -7047,7 +7023,7 @@
         <v>159</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>164</v>
@@ -7175,7 +7151,7 @@
         <v>159</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>164</v>
@@ -7303,7 +7279,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="11" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>164</v>
@@ -7434,7 +7410,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>164</v>
@@ -7562,7 +7538,7 @@
         <v>162</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7716,7 +7692,7 @@
         <v>433</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA24" s="11">
         <v>2</v>
@@ -7743,7 +7719,7 @@
         <v>155</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>232</v>
@@ -7752,13 +7728,13 @@
         <v>162</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="AQ24" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AU24" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AV24" s="11" t="s">
         <v>238</v>
@@ -7766,49 +7742,49 @@
       <c r="AW24" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX24" s="11" t="s">
-        <v>654</v>
+      <c r="AX24" s="12" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E25" s="11">
         <v>2019</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>248</v>
@@ -7817,31 +7793,31 @@
         <v>249</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
       <c r="AA25" s="11">
         <v>2</v>
@@ -7850,34 +7826,25 @@
         <v>2</v>
       </c>
       <c r="AC25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI25" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL25" s="11" t="s">
-        <v>647</v>
+        <v>121</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN25" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO25" s="12" t="s">
-        <v>629</v>
+        <v>233</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="AQ25" s="11" t="s">
         <v>164</v>
@@ -7886,60 +7853,60 @@
         <v>421</v>
       </c>
       <c r="AT25" s="11" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
       <c r="AV25" s="11" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>442</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E26" s="11">
         <v>2019</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>248</v>
@@ -7948,31 +7915,31 @@
         <v>249</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
       <c r="AA26" s="11">
         <v>2</v>
@@ -7981,99 +7948,87 @@
         <v>2</v>
       </c>
       <c r="AC26" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF26" s="11">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="AG26" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ26" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL26" s="11" t="s">
-        <v>647</v>
+        <v>121</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AM26" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN26" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO26" s="12" t="s">
-        <v>629</v>
+        <v>233</v>
+      </c>
+      <c r="AO26" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AT26" s="11" t="s">
-        <v>437</v>
+        <v>537</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
       <c r="AV26" s="11" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AW26" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX26" s="10" t="s">
-        <v>443</v>
+        <v>208</v>
+      </c>
+      <c r="AX26" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E27" s="11">
         <v>2019</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>248</v>
@@ -8082,31 +8037,31 @@
         <v>249</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="AA27" s="11">
         <v>2</v>
@@ -8115,99 +8070,96 @@
         <v>2</v>
       </c>
       <c r="AC27" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="11">
-        <v>4.2</v>
+        <v>1</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ27" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>647</v>
+        <v>138</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO27" s="12" t="s">
-        <v>629</v>
+        <v>160</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>646</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR27" s="11" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>441</v>
+        <v>542</v>
       </c>
       <c r="AV27" s="11" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="AW27" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AX27" s="11" t="s">
-        <v>442</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E28" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>248</v>
@@ -8216,120 +8168,57 @@
         <v>249</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>2</v>
+      <c r="R28" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF28" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM28" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO28" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR28" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AV28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW28" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX28" s="11" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="E29" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>248</v>
@@ -8338,120 +8227,57 @@
         <v>249</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA29" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="11">
-        <v>2</v>
+      <c r="R29" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF29" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM29" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR29" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>546</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E30" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>248</v>
@@ -8460,129 +8286,57 @@
         <v>249</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>1</v>
+      <c r="R30" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG30" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH30" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM30" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO30" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="AP30" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="AQ30" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR30" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT30" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="AU30" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="AV30" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW30" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" s="11" t="s">
-        <v>657</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E31" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>248</v>
@@ -8591,57 +8345,58 @@
         <v>249</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Y31" s="12"/>
       <c r="AF31" s="11" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E32" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>248</v>
@@ -8655,52 +8410,124 @@
       <c r="Q32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="11" t="s">
-        <v>84</v>
+      <c r="S32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="AF32" s="11" t="s">
-        <v>265</v>
+        <v>307</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL32" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO32" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR32" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV32" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX32" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="E33" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>248</v>
@@ -8714,52 +8541,124 @@
       <c r="Q33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="11" t="s">
-        <v>84</v>
+      <c r="S33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="AF33" s="11" t="s">
-        <v>288</v>
+        <v>307</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU33" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW33" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX33" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E34" s="11">
         <v>2017</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>248</v>
@@ -8768,17 +8667,88 @@
         <v>249</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y34" s="12"/>
+      <c r="S34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="AF34" s="11" t="s">
-        <v>250</v>
+        <v>307</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM34" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR34" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU34" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX34" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8852,7 +8822,7 @@
         <v>69</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA35" s="11">
         <v>3</v>
@@ -8864,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AF35" s="11" t="s">
         <v>307</v>
@@ -8879,7 +8849,7 @@
         <v>138</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>552</v>
+        <v>643</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>232</v>
@@ -8888,7 +8858,7 @@
         <v>160</v>
       </c>
       <c r="AO35" s="11" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AQ35" s="11" t="s">
         <v>165</v>
@@ -8897,10 +8867,10 @@
         <v>197</v>
       </c>
       <c r="AS35" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AU35" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>238</v>
@@ -8909,7 +8879,7 @@
         <v>207</v>
       </c>
       <c r="AX35" s="10" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8983,7 +8953,7 @@
         <v>69</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA36" s="11">
         <v>3</v>
@@ -8995,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AF36" s="11" t="s">
         <v>307</v>
@@ -9010,7 +8980,7 @@
         <v>138</v>
       </c>
       <c r="AL36" s="11" t="s">
-        <v>551</v>
+        <v>644</v>
       </c>
       <c r="AM36" s="11" t="s">
         <v>232</v>
@@ -9019,7 +8989,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="11" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AQ36" s="11" t="s">
         <v>165</v>
@@ -9028,19 +8998,19 @@
         <v>197</v>
       </c>
       <c r="AS36" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AU36" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AV36" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX36" s="10" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9114,7 +9084,7 @@
         <v>69</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA37" s="11">
         <v>3</v>
@@ -9126,7 +9096,7 @@
         <v>2</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AF37" s="11" t="s">
         <v>307</v>
@@ -9135,13 +9105,10 @@
         <v>109</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI37" s="11" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>232</v>
@@ -9150,19 +9117,16 @@
         <v>160</v>
       </c>
       <c r="AO37" s="11" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>165</v>
       </c>
       <c r="AR37" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="AU37" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>238</v>
@@ -9171,7 +9135,7 @@
         <v>207</v>
       </c>
       <c r="AX37" s="10" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9245,7 +9209,7 @@
         <v>69</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AA38" s="11">
         <v>3</v>
@@ -9257,7 +9221,7 @@
         <v>2</v>
       </c>
       <c r="AD38" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AF38" s="11" t="s">
         <v>307</v>
@@ -9272,7 +9236,7 @@
         <v>138</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>232</v>
@@ -9281,7 +9245,7 @@
         <v>160</v>
       </c>
       <c r="AO38" s="11" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>165</v>
@@ -9290,10 +9254,10 @@
         <v>197</v>
       </c>
       <c r="AS38" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AU38" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AV38" s="11" t="s">
         <v>238</v>
@@ -9302,48 +9266,48 @@
         <v>207</v>
       </c>
       <c r="AX38" s="10" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E39" s="11">
         <v>2017</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>248</v>
@@ -9352,129 +9316,57 @@
         <v>249</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>558</v>
+      <c r="R39" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH39" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL39" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AM39" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO39" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="AQ39" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="AV39" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW39" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX39" s="10" t="s">
-        <v>556</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E40" s="11">
         <v>2017</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>248</v>
@@ -9489,16 +9381,16 @@
         <v>21</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W40" s="11" t="s">
         <v>51</v>
@@ -9507,31 +9399,31 @@
         <v>69</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AA40" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="11">
         <v>3</v>
       </c>
-      <c r="AB40" s="11">
-        <v>1</v>
-      </c>
       <c r="AC40" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>558</v>
+        <v>3</v>
       </c>
       <c r="AF40" s="11" t="s">
         <v>307</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>653</v>
+        <v>553</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>232</v>
@@ -9540,13 +9432,19 @@
         <v>160</v>
       </c>
       <c r="AO40" s="11" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AQ40" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>113</v>
+        <v>169</v>
+      </c>
+      <c r="AS40" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT40" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="AU40" s="11" t="s">
         <v>555</v>
@@ -9557,49 +9455,49 @@
       <c r="AW40" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX40" s="10" t="s">
-        <v>557</v>
+      <c r="AX40" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="E41" s="11">
         <v>2017</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>248</v>
@@ -9608,114 +9506,117 @@
         <v>249</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AA41" s="11">
         <v>3</v>
       </c>
       <c r="AB41" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC41" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL41" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>554</v>
-      </c>
       <c r="AM41" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AQ41" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR41" s="11" t="s">
-        <v>197</v>
+        <v>421</v>
       </c>
       <c r="AS41" s="11" t="s">
-        <v>192</v>
+        <v>175</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="AU41" s="11" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AV41" s="11" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AW41" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX41" s="10" t="s">
-        <v>557</v>
+        <v>210</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E42" s="11">
         <v>2017</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>245</v>
@@ -9724,13 +9625,13 @@
         <v>245</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>248</v>
@@ -9744,52 +9645,127 @@
       <c r="Q42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>84</v>
+      <c r="S42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>3</v>
       </c>
       <c r="AF42" s="11" t="s">
         <v>250</v>
+      </c>
+      <c r="AG42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL42" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM42" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS42" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT42" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AU42" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW42" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX42" s="11" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E43" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>248</v>
@@ -9804,123 +9780,120 @@
         <v>21</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T43" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X43" s="11" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="AA43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB43" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI43" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL43" s="11" t="s">
-        <v>560</v>
+        <v>140</v>
+      </c>
+      <c r="AJ43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="AM43" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO43" s="11" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AQ43" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR43" s="11" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
       <c r="AS43" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>561</v>
+        <v>176</v>
       </c>
       <c r="AU43" s="11" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="AV43" s="11" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW43" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX43" s="11" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E44" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>248</v>
@@ -9929,88 +9902,91 @@
         <v>249</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V44" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W44" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X44" s="11" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA44" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="11">
         <v>3</v>
       </c>
+      <c r="AD44" s="11" t="s">
+        <v>567</v>
+      </c>
       <c r="AF44" s="11" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AG44" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH44" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI44" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK44" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL44" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO44" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AP44" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="AM44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO44" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="AQ44" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR44" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="AS44" s="11" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AT44" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AU44" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AU44" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="AV44" s="11" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW44" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX44" s="11" t="s">
         <v>568</v>
@@ -10018,43 +9994,43 @@
     </row>
     <row r="45" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E45" s="11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>248</v>
@@ -10063,88 +10039,94 @@
         <v>249</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V45" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA45" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB45" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="11">
         <v>3</v>
       </c>
+      <c r="AD45" s="11" t="s">
+        <v>567</v>
+      </c>
       <c r="AF45" s="11" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AG45" s="11" t="s">
-        <v>111</v>
+        <v>651</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI45" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK45" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL45" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO45" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AP45" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="AM45" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO45" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR45" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="AT45" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AU45" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AU45" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="AV45" s="11" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="AW45" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX45" s="11" t="s">
         <v>568</v>
@@ -10152,43 +10134,43 @@
     </row>
     <row r="46" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E46" s="11">
         <v>2016</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>248</v>
@@ -10203,120 +10185,129 @@
         <v>21</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T46" s="11" t="s">
         <v>41</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W46" s="11" t="s">
         <v>55</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="AA46" s="11">
         <v>2</v>
       </c>
       <c r="AB46" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD46" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="AF46" s="11" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AG46" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH46" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI46" s="11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ46" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK46" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="AL46" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="AM46" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO46" s="11" t="s">
-        <v>636</v>
+        <v>159</v>
+      </c>
+      <c r="AO46" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AP46" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR46" s="11" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="AS46" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+      <c r="AT46" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="AU46" s="11" t="s">
-        <v>637</v>
+        <v>566</v>
       </c>
       <c r="AV46" s="11" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="AW46" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX46" s="11" t="s">
-        <v>638</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E47" s="11">
         <v>2016</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>245</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>248</v>
@@ -10325,171 +10316,168 @@
         <v>249</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V47" s="11" t="s">
         <v>42</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z47" s="11" t="s">
         <v>569</v>
       </c>
       <c r="AA47" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="11">
         <v>2</v>
-      </c>
-      <c r="AB47" s="11">
-        <v>1</v>
       </c>
       <c r="AC47" s="11">
         <v>3</v>
       </c>
-      <c r="AD47" s="11" t="s">
+      <c r="AD47" s="10" t="s">
         <v>574</v>
       </c>
       <c r="AF47" s="11" t="s">
         <v>268</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI47" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ47" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AL47" s="11" t="s">
         <v>570</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO47" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="AP47" s="11" t="s">
-        <v>572</v>
+        <v>232</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>624</v>
       </c>
       <c r="AQ47" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR47" s="11" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="AS47" s="11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="AT47" s="11" t="s">
         <v>571</v>
       </c>
       <c r="AU47" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AV47" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX47" s="11" t="s">
         <v>573</v>
-      </c>
-      <c r="AV47" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW47" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX47" s="11" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="N48" s="11" t="s">
+      <c r="C48" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="N48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P48" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q48" s="11" t="s">
+      <c r="P48" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S48" s="11" t="s">
-        <v>31</v>
+      <c r="S48" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="T48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V48" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="W48" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X48" s="11" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Y48" s="11" t="s">
-        <v>434</v>
+        <v>575</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AA48" s="11">
         <v>2</v>
@@ -10498,135 +10486,132 @@
         <v>1</v>
       </c>
       <c r="AC48" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD48" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF48" s="13" t="s">
         <v>268</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>660</v>
+        <v>109</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI48" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ48" s="11" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AM48" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO48" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="AP48" s="11" t="s">
-        <v>572</v>
+        <v>232</v>
+      </c>
+      <c r="AN48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO48" s="11" t="s">
+        <v>649</v>
       </c>
       <c r="AQ48" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR48" s="11" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS48" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AT48" s="11" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AU48" s="11" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="AV48" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW48" s="11" t="s">
         <v>207</v>
       </c>
       <c r="AX48" s="11" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="N49" s="11" t="s">
+      <c r="C49" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="N49" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P49" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q49" s="11" t="s">
+      <c r="P49" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="11" t="s">
-        <v>31</v>
+      <c r="S49" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="T49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="W49" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AA49" s="11">
         <v>2</v>
@@ -10635,37 +10620,31 @@
         <v>1</v>
       </c>
       <c r="AC49" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF49" s="13" t="s">
         <v>268</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI49" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ49" s="11" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="AL49" s="11" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AM49" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO49" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="AP49" s="11" t="s">
-        <v>572</v>
+        <v>232</v>
+      </c>
+      <c r="AN49" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO49" s="11" t="s">
+        <v>649</v>
       </c>
       <c r="AQ49" s="11" t="s">
         <v>164</v>
@@ -10674,123 +10653,123 @@
         <v>197</v>
       </c>
       <c r="AS49" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AT49" s="11" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AU49" s="11" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="AV49" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW49" s="11" t="s">
         <v>207</v>
       </c>
       <c r="AX49" s="11" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E50" s="11">
-        <v>2016</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="N50" s="11" t="s">
+      <c r="C50" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2015</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="N50" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S50" s="11" t="s">
-        <v>26</v>
+      <c r="S50" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="T50" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W50" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X50" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y50" s="11" t="s">
+        <v>575</v>
+      </c>
       <c r="Z50" s="11" t="s">
         <v>576</v>
       </c>
       <c r="AA50" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB50" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF50" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF50" s="13" t="s">
         <v>268</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI50" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AL50" s="11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM50" s="11" t="s">
         <v>232</v>
@@ -10799,45 +10778,45 @@
         <v>162</v>
       </c>
       <c r="AO50" s="11" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR50" s="11" t="s">
-        <v>422</v>
+        <v>197</v>
       </c>
       <c r="AS50" s="11" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AT50" s="11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AU50" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AV50" s="11" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW50" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX50" s="11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E51" s="13">
         <v>2015</v>
@@ -10852,19 +10831,19 @@
         <v>245</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L51" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>248</v>
@@ -10897,10 +10876,10 @@
         <v>69</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AA51" s="11">
         <v>2</v>
@@ -10912,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF51" s="13" t="s">
         <v>268</v>
@@ -10924,7 +10903,7 @@
         <v>116</v>
       </c>
       <c r="AL51" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AM51" s="11" t="s">
         <v>232</v>
@@ -10933,7 +10912,7 @@
         <v>162</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>164</v>
@@ -10945,10 +10924,10 @@
         <v>188</v>
       </c>
       <c r="AT51" s="11" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AU51" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>238</v>
@@ -10957,7 +10936,7 @@
         <v>207</v>
       </c>
       <c r="AX51" s="11" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10977,28 +10956,28 @@
         <v>2015</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>283</v>
+        <v>448</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>245</v>
+        <v>449</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N52" s="13" t="s">
         <v>248</v>
@@ -11007,132 +10986,58 @@
         <v>249</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U52" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="Z52" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA52" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB52" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="10" t="s">
-        <v>584</v>
-      </c>
+      <c r="R52" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S52" s="13"/>
       <c r="AF52" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG52" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH52" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL52" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM52" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN52" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO52" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="AQ52" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR52" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS52" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT52" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="AU52" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="AV52" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX52" s="11" t="s">
-        <v>591</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E53" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>448</v>
+        <v>245</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L53" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>248</v>
@@ -11147,40 +11052,40 @@
         <v>21</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T53" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W53" s="11" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="X53" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Y53" s="11" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AA53" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="11">
         <v>2</v>
       </c>
-      <c r="AB53" s="11">
-        <v>1</v>
-      </c>
       <c r="AC53" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD53" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF53" s="13" t="s">
         <v>268</v>
@@ -11189,10 +11094,13 @@
         <v>109</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="AI53" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="AL53" s="11" t="s">
-        <v>585</v>
+        <v>429</v>
       </c>
       <c r="AM53" s="11" t="s">
         <v>232</v>
@@ -11201,22 +11109,16 @@
         <v>162</v>
       </c>
       <c r="AO53" s="11" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AQ53" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR53" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS53" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT53" s="11" t="s">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="AU53" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>238</v>
@@ -11225,48 +11127,48 @@
         <v>207</v>
       </c>
       <c r="AX53" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E54" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>448</v>
+        <v>245</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L54" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N54" s="13" t="s">
         <v>248</v>
@@ -11281,40 +11183,40 @@
         <v>21</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T54" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W54" s="11" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="X54" s="11" t="s">
         <v>69</v>
       </c>
       <c r="Y54" s="11" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="Z54" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AA54" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="11">
         <v>2</v>
       </c>
-      <c r="AB54" s="11">
-        <v>1</v>
-      </c>
       <c r="AC54" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD54" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF54" s="13" t="s">
         <v>268</v>
@@ -11323,10 +11225,13 @@
         <v>109</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="AI54" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>589</v>
+        <v>429</v>
       </c>
       <c r="AM54" s="11" t="s">
         <v>232</v>
@@ -11335,7 +11240,7 @@
         <v>162</v>
       </c>
       <c r="AO54" s="11" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AQ54" s="11" t="s">
         <v>164</v>
@@ -11346,11 +11251,8 @@
       <c r="AS54" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AT54" s="11" t="s">
+      <c r="AU54" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="AU54" s="11" t="s">
-        <v>590</v>
       </c>
       <c r="AV54" s="11" t="s">
         <v>238</v>
@@ -11359,48 +11261,48 @@
         <v>207</v>
       </c>
       <c r="AX54" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E55" s="13">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>456</v>
+        <v>267</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>248</v>
@@ -11415,52 +11317,52 @@
         <v>21</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S55" s="13"/>
       <c r="AF55" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E56" s="13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>311</v>
+        <v>473</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>245</v>
+        <v>477</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="N56" s="13" t="s">
         <v>248</v>
@@ -11469,129 +11371,126 @@
         <v>249</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q56" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S56" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T56" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W56" s="11" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="X56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Z56" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AA56" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB56" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC56" s="11">
         <v>3</v>
       </c>
       <c r="AD56" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF56" s="13" t="s">
-        <v>268</v>
+        <v>480</v>
       </c>
       <c r="AG56" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI56" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL56" s="11" t="s">
-        <v>429</v>
+        <v>133</v>
+      </c>
+      <c r="AK56" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN56" s="11" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="AQ56" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR56" s="11" t="s">
-        <v>113</v>
+        <v>421</v>
+      </c>
+      <c r="AS56" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU56" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AV56" s="11" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW56" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX56" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E57" s="13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>311</v>
+        <v>473</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>245</v>
+        <v>477</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>248</v>
@@ -11600,132 +11499,126 @@
         <v>249</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q57" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S57" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T57" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W57" s="11" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="X57" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y57" s="11" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AA57" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB57" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC57" s="11">
         <v>3</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AF57" s="13" t="s">
-        <v>268</v>
+        <v>480</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI57" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL57" s="11" t="s">
-        <v>429</v>
+        <v>140</v>
+      </c>
+      <c r="AK57" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AM57" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN57" s="11" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO57" s="11" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="AQ57" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AU57" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AV57" s="11" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW57" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX57" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E58" s="13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>248</v>
@@ -11739,53 +11632,121 @@
       <c r="Q58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S58" s="13"/>
+      <c r="S58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="10" t="s">
+        <v>590</v>
+      </c>
       <c r="AF58" s="13" t="s">
-        <v>307</v>
+        <v>480</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH58" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI58" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM58" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AQ58" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR58" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS58" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU58" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AV58" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW58" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX58" s="11" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E59" s="13">
         <v>2013</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>248</v>
@@ -11818,7 +11779,7 @@
         <v>80</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AA59" s="11">
         <v>2</v>
@@ -11830,10 +11791,10 @@
         <v>3</v>
       </c>
       <c r="AD59" s="10" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AF59" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG59" s="11" t="s">
         <v>111</v>
@@ -11842,7 +11803,7 @@
         <v>120</v>
       </c>
       <c r="AI59" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK59" s="11" t="s">
         <v>148</v>
@@ -11851,7 +11812,7 @@
         <v>233</v>
       </c>
       <c r="AO59" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ59" s="11" t="s">
         <v>164</v>
@@ -11860,10 +11821,10 @@
         <v>421</v>
       </c>
       <c r="AS59" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AU59" s="11" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AV59" s="11" t="s">
         <v>199</v>
@@ -11872,48 +11833,48 @@
         <v>208</v>
       </c>
       <c r="AX59" s="11" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E60" s="13">
         <v>2013</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="N60" s="13" t="s">
         <v>248</v>
@@ -11946,7 +11907,7 @@
         <v>80</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AA60" s="11">
         <v>2</v>
@@ -11958,28 +11919,25 @@
         <v>3</v>
       </c>
       <c r="AD60" s="10" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI60" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK60" s="11" t="s">
         <v>148</v>
       </c>
       <c r="AM60" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO60" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ60" s="11" t="s">
         <v>164</v>
@@ -11991,57 +11949,57 @@
         <v>175</v>
       </c>
       <c r="AU60" s="11" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="AV60" s="11" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW60" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX60" s="11" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E61" s="13">
         <v>2013</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>248</v>
@@ -12074,7 +12032,7 @@
         <v>80</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AA61" s="11">
         <v>2</v>
@@ -12086,28 +12044,25 @@
         <v>3</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AF61" s="13" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG61" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK61" s="11" t="s">
         <v>148</v>
       </c>
       <c r="AM61" s="11" t="s">
         <v>233</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ61" s="11" t="s">
         <v>164</v>
@@ -12119,57 +12074,57 @@
         <v>176</v>
       </c>
       <c r="AU61" s="11" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="AV61" s="11" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW61" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX61" s="11" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E62" s="13">
         <v>2013</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L62" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N62" s="13" t="s">
         <v>248</v>
@@ -12184,58 +12139,52 @@
         <v>21</v>
       </c>
       <c r="S62" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U62" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V62" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W62" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X62" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y62" s="11" t="s">
+        <v>632</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="AA62" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="11">
         <v>2</v>
       </c>
-      <c r="AB62" s="11">
-        <v>3</v>
-      </c>
       <c r="AC62" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD62" s="10" t="s">
-        <v>597</v>
+        <v>2</v>
       </c>
       <c r="AF62" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG62" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI62" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK62" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM62" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN62" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO62" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ62" s="11" t="s">
         <v>164</v>
@@ -12244,10 +12193,13 @@
         <v>421</v>
       </c>
       <c r="AS62" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT62" s="11" t="s">
+        <v>635</v>
       </c>
       <c r="AU62" s="11" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AV62" s="11" t="s">
         <v>199</v>
@@ -12256,48 +12208,48 @@
         <v>208</v>
       </c>
       <c r="AX62" s="11" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E63" s="13">
         <v>2013</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>248</v>
@@ -12312,55 +12264,52 @@
         <v>21</v>
       </c>
       <c r="S63" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U63" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W63" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X63" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>632</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="AA63" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB63" s="11">
         <v>2</v>
       </c>
-      <c r="AB63" s="11">
-        <v>3</v>
-      </c>
       <c r="AC63" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD63" s="10" t="s">
-        <v>597</v>
+        <v>2</v>
       </c>
       <c r="AF63" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG63" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI63" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM63" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN63" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="AO63" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ63" s="11" t="s">
         <v>164</v>
@@ -12371,58 +12320,61 @@
       <c r="AS63" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT63" s="11" t="s">
+        <v>635</v>
+      </c>
       <c r="AU63" s="11" t="s">
-        <v>661</v>
+        <v>591</v>
       </c>
       <c r="AV63" s="11" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW63" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX63" s="11" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E64" s="13">
         <v>2013</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L64" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N64" s="13" t="s">
         <v>248</v>
@@ -12437,55 +12389,52 @@
         <v>21</v>
       </c>
       <c r="S64" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U64" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V64" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W64" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X64" s="11" t="s">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>632</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="AA64" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB64" s="11">
         <v>2</v>
       </c>
-      <c r="AB64" s="11">
-        <v>3</v>
-      </c>
       <c r="AC64" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="10" t="s">
-        <v>597</v>
+        <v>2</v>
       </c>
       <c r="AF64" s="13" t="s">
-        <v>487</v>
+        <v>265</v>
       </c>
       <c r="AG64" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI64" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="AM64" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN64" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO64" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ64" s="11" t="s">
         <v>164</v>
@@ -12494,39 +12443,42 @@
         <v>421</v>
       </c>
       <c r="AS64" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT64" s="11" t="s">
+        <v>635</v>
       </c>
       <c r="AU64" s="11" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="AV64" s="11" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="AW64" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX64" s="11" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E65" s="13">
         <v>2013</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>331</v>
@@ -12535,19 +12487,19 @@
         <v>245</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>248</v>
@@ -12577,10 +12529,10 @@
         <v>216</v>
       </c>
       <c r="Y65" s="11" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AA65" s="11">
         <v>3</v>
@@ -12604,10 +12556,10 @@
         <v>232</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO65" s="11" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ65" s="11" t="s">
         <v>164</v>
@@ -12619,19 +12571,19 @@
         <v>175</v>
       </c>
       <c r="AT65" s="11" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="AU65" s="11" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="AV65" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW65" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX65" s="11" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12648,40 +12600,40 @@
         <v>490</v>
       </c>
       <c r="E66" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>491</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="O66" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q66" s="13" t="s">
         <v>21</v>
@@ -12690,49 +12642,58 @@
         <v>31</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V66" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X66" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="Z66" s="11" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="AA66" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB66" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="11">
         <v>2</v>
       </c>
+      <c r="AD66" s="10" t="s">
+        <v>598</v>
+      </c>
       <c r="AF66" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG66" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL66" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="AM66" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN66" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AQ66" s="11" t="s">
         <v>164</v>
@@ -12740,23 +12701,20 @@
       <c r="AR66" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS66" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT66" s="11" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="AU66" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AV66" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW66" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX66" s="11" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12773,40 +12731,40 @@
         <v>490</v>
       </c>
       <c r="E67" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>491</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="O67" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q67" s="13" t="s">
         <v>21</v>
@@ -12815,40 +12773,49 @@
         <v>31</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V67" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y67" s="11" t="s">
-        <v>640</v>
+        <v>75</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="AA67" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB67" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="11">
         <v>2</v>
       </c>
+      <c r="AD67" s="10" t="s">
+        <v>598</v>
+      </c>
       <c r="AF67" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG67" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI67" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL67" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="AM67" s="11" t="s">
         <v>232</v>
@@ -12857,7 +12824,7 @@
         <v>160</v>
       </c>
       <c r="AO67" s="11" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AQ67" s="11" t="s">
         <v>164</v>
@@ -12865,14 +12832,11 @@
       <c r="AR67" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS67" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT67" s="11" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="AU67" s="11" t="s">
-        <v>644</v>
+        <v>596</v>
       </c>
       <c r="AV67" s="11" t="s">
         <v>203</v>
@@ -12881,7 +12845,7 @@
         <v>208</v>
       </c>
       <c r="AX67" s="11" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12898,40 +12862,40 @@
         <v>490</v>
       </c>
       <c r="E68" s="13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>491</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L68" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="O68" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="Q68" s="13" t="s">
         <v>21</v>
@@ -12940,49 +12904,58 @@
         <v>31</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U68" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="V68" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="W68" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X68" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>640</v>
-      </c>
       <c r="Z68" s="11" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="AA68" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB68" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="11">
         <v>2</v>
       </c>
+      <c r="AD68" s="10" t="s">
+        <v>598</v>
+      </c>
       <c r="AF68" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AG68" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL68" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="AM68" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN68" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO68" s="11" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="AQ68" s="11" t="s">
         <v>164</v>
@@ -12990,67 +12963,64 @@
       <c r="AR68" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS68" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT68" s="11" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="AU68" s="11" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="AV68" s="11" t="s">
         <v>203</v>
       </c>
       <c r="AW68" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX68" s="11" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E69" s="13">
         <v>2012</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>283</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="O69" s="13" t="s">
         <v>249</v>
@@ -13077,10 +13047,10 @@
         <v>51</v>
       </c>
       <c r="X69" s="11" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AA69" s="11">
         <v>1</v>
@@ -13092,7 +13062,7 @@
         <v>2</v>
       </c>
       <c r="AD69" s="10" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="AF69" s="13" t="s">
         <v>265</v>
@@ -13107,7 +13077,7 @@
         <v>144</v>
       </c>
       <c r="AL69" s="11" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AM69" s="11" t="s">
         <v>232</v>
@@ -13116,7 +13086,7 @@
         <v>160</v>
       </c>
       <c r="AO69" s="11" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>164</v>
@@ -13125,129 +13095,129 @@
         <v>421</v>
       </c>
       <c r="AT69" s="11" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AU69" s="11" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AV69" s="11" t="s">
         <v>203</v>
       </c>
       <c r="AW69" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX69" s="11" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E70" s="13">
         <v>2012</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O70" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
       <c r="Q70" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T70" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V70" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W70" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X70" s="11" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z70" s="11" t="s">
         <v>601</v>
       </c>
       <c r="AA70" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB70" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC70" s="11">
         <v>1</v>
       </c>
-      <c r="AB70" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD70" s="10" t="s">
-        <v>605</v>
-      </c>
       <c r="AF70" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG70" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH70" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI70" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ70" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH70" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI70" s="11" t="s">
-        <v>144</v>
+      <c r="AK70" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL70" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AM70" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN70" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO70" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AQ70" s="11" t="s">
         <v>164</v>
@@ -13255,130 +13225,130 @@
       <c r="AR70" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT70" s="11" t="s">
+      <c r="AS70" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU70" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="AU70" s="11" t="s">
-        <v>603</v>
-      </c>
       <c r="AV70" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW70" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AX70" s="11" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E71" s="13">
         <v>2012</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O71" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
       <c r="Q71" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S71" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T71" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V71" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W71" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X71" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z71" s="11" t="s">
         <v>601</v>
       </c>
       <c r="AA71" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC71" s="11">
         <v>1</v>
       </c>
-      <c r="AB71" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD71" s="10" t="s">
-        <v>605</v>
-      </c>
       <c r="AF71" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AG71" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ71" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH71" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI71" s="11" t="s">
-        <v>144</v>
+      <c r="AK71" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="AL71" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AM71" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN71" s="11" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO71" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>164</v>
@@ -13386,130 +13356,130 @@
       <c r="AR71" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>602</v>
+      <c r="AS71" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="AU71" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AV71" s="11" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AW71" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX71" s="11" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="E72" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="O72" s="13" t="s">
         <v>249</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="Q72" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T72" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U72" s="11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V72" s="11" t="s">
         <v>41</v>
       </c>
       <c r="W72" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X72" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AA72" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="11">
         <v>1</v>
       </c>
-      <c r="AB72" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD72" s="10" t="s">
-        <v>605</v>
-      </c>
       <c r="AF72" s="13" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="AG72" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AH72" s="11" t="s">
         <v>117</v>
       </c>
       <c r="AI72" s="11" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="AK72" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AM72" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN72" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO72" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AQ72" s="11" t="s">
         <v>164</v>
@@ -13517,61 +13487,64 @@
       <c r="AR72" s="11" t="s">
         <v>421</v>
       </c>
+      <c r="AS72" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="AT72" s="11" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AU72" s="11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AV72" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW72" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX72" s="11" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E73" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>248</v>
@@ -13580,19 +13553,19 @@
         <v>249</v>
       </c>
       <c r="P73" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q73" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T73" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V73" s="11" t="s">
         <v>41</v>
@@ -13601,46 +13574,46 @@
         <v>55</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AA73" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB73" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC73" s="11">
         <v>1</v>
       </c>
       <c r="AF73" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG73" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH73" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI73" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ73" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AK73" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM73" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN73" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO73" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>164</v>
@@ -13651,58 +13624,61 @@
       <c r="AS73" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AT73" s="11" t="s">
+        <v>605</v>
+      </c>
       <c r="AU73" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW73" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX73" s="11" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E74" s="13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>373</v>
+        <v>520</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L74" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="N74" s="13" t="s">
         <v>248</v>
@@ -13711,31 +13687,34 @@
         <v>249</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>21</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T74" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U74" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V74" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W74" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>215</v>
+        <v>69</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AA74" s="11">
         <v>2</v>
@@ -13744,13 +13723,13 @@
         <v>2</v>
       </c>
       <c r="AC74" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AG74" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH74" s="11" t="s">
         <v>120</v>
@@ -13762,16 +13741,19 @@
         <v>113</v>
       </c>
       <c r="AK74" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL74" s="11" t="s">
-        <v>607</v>
+        <v>150</v>
+      </c>
+      <c r="AL74" s="10" t="s">
+        <v>615</v>
       </c>
       <c r="AM74" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN74" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="AO74" s="11" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="AQ74" s="11" t="s">
         <v>164</v>
@@ -13779,61 +13761,58 @@
       <c r="AR74" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AU74" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AV74" s="11" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AW74" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX74" s="11" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E75" s="13">
         <v>2011</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>303</v>
+        <v>520</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>248</v>
@@ -13848,34 +13827,37 @@
         <v>21</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T75" s="11" t="s">
         <v>46</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V75" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W75" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X75" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="Y75" s="12" t="s">
+        <v>610</v>
+      </c>
       <c r="Z75" s="11" t="s">
         <v>611</v>
       </c>
       <c r="AA75" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB75" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC75" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF75" s="13" t="s">
         <v>307</v>
@@ -13884,25 +13866,28 @@
         <v>109</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI75" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="AK75" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AL75" s="11" t="s">
+      <c r="AL75" s="10" t="s">
         <v>614</v>
       </c>
       <c r="AM75" s="11" t="s">
         <v>232</v>
       </c>
       <c r="AN75" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO75" s="11" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>164</v>
@@ -13910,425 +13895,17 @@
       <c r="AR75" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AS75" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT75" s="11" t="s">
+      <c r="AU75" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>613</v>
       </c>
       <c r="AV75" s="11" t="s">
         <v>199</v>
       </c>
       <c r="AW75" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX75" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="76" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="E76" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O76" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P76" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q76" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U76" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V76" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W76" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z76" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA76" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB76" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC76" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF76" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH76" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI76" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK76" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL76" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="AM76" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN76" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO76" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="AQ76" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR76" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AS76" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT76" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="AU76" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="AV76" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW76" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX76" s="11" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E77" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P77" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q77" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S77" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V77" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W77" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y77" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA77" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB77" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC77" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF77" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG77" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH77" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI77" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ77" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK77" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL77" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM77" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN77" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO77" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ77" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR77" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU77" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="AV77" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW77" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX77" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="78" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="E78" s="13">
-        <v>2011</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="N78" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="O78" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="P78" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q78" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S78" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V78" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W78" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y78" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z78" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA78" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB78" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC78" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF78" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG78" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH78" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI78" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ78" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK78" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL78" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM78" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN78" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO78" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ78" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR78" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="AU78" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="AV78" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW78" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX78" s="11" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -14349,7 +13926,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AO79:AO1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO76:AO1048576 AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -14363,19 +13940,19 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R50 R55:R1048576 AF3:AF78</xm:sqref>
+          <xm:sqref>R52:R1048576 AF3:AF75 R3:R47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG47 AG49:AG1048576</xm:sqref>
+          <xm:sqref>AG46:AG1048576 AG3:AG44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D836B117-5631-4F99-9AA2-A5DA252E03A0}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AG48</xm:sqref>
+          <xm:sqref>AG45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -15043,7 +14620,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AH10" t="s">
         <v>119</v>
@@ -16575,14 +16152,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
